--- a/scripts/station_info.xlsx
+++ b/scripts/station_info.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\fish_biodiversity\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3454ED20-1503-4C2C-BD9B-080740D54781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86521630-84A6-4B3D-AE37-DDF29466D310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23427" yWindow="6980" windowWidth="1946" windowHeight="1013"/>
+    <workbookView xWindow="1335" yWindow="390" windowWidth="20895" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="station_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Christopher Bird</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="591">
   <si>
     <t>date_collected</t>
   </si>
@@ -1094,15 +1106,6 @@
     <t>24 to 30</t>
   </si>
   <si>
-    <t>4 Dec 1967 (1967 Dec 04 - 0000 00 00; 14:15 - 15:15)</t>
-  </si>
-  <si>
-    <t>Cane Patch Creek.</t>
-  </si>
-  <si>
-    <t>Libbey, J. D.</t>
-  </si>
-  <si>
     <t>23 Apr 1979 (1979 Apr 23 - 0000 00 00; 14:30 - 15:30)</t>
   </si>
   <si>
@@ -1446,12 +1449,402 @@
   </si>
   <si>
     <t>method_capture_gal</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>Rotenone</t>
+  </si>
+  <si>
+    <t>Rotenone; Spear</t>
+  </si>
+  <si>
+    <t>Gravel, pavement limestone</t>
+  </si>
+  <si>
+    <t>Limestone and sandy gravel</t>
+  </si>
+  <si>
+    <t>10 - 30'</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Rotenone; Dip Net</t>
+  </si>
+  <si>
+    <t>Coral Reef</t>
+  </si>
+  <si>
+    <t>Rock, coral, sand</t>
+  </si>
+  <si>
+    <t>200 m</t>
+  </si>
+  <si>
+    <t>Porous coralline rocks along shore</t>
+  </si>
+  <si>
+    <t>Coral, rocks, sand</t>
+  </si>
+  <si>
+    <t>0 - 50'</t>
+  </si>
+  <si>
+    <t>Estuarine R. mouth bordered by mangrove and sandy shore</t>
+  </si>
+  <si>
+    <t>sand and silt</t>
+  </si>
+  <si>
+    <t>0 - 30'</t>
+  </si>
+  <si>
+    <t>R, dip net "and by hand"?</t>
+  </si>
+  <si>
+    <t>Mangrove</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>50 m</t>
+  </si>
+  <si>
+    <t>Nialoasia(?)</t>
+  </si>
+  <si>
+    <t>~ 3km to Diutay</t>
+  </si>
+  <si>
+    <t>Small coral heads and soft coral with small patches of sand intervening</t>
+  </si>
+  <si>
+    <t>rock, soft and hard corals, muddy sand</t>
+  </si>
+  <si>
+    <t>Unotea algae and some green filamentous algae</t>
+  </si>
+  <si>
+    <t>Encrusting corals on boulders and volcanic rock, few sand patches</t>
+  </si>
+  <si>
+    <t>Boulders, encrusting corals, sand patches, a little algae</t>
+  </si>
+  <si>
+    <t>0 - 75'</t>
+  </si>
+  <si>
+    <t>Small lagoon surrounded by mangrove trees</t>
+  </si>
+  <si>
+    <t>mud and sand</t>
+  </si>
+  <si>
+    <t>0 - 100'</t>
+  </si>
+  <si>
+    <t>some floating green algae</t>
+  </si>
+  <si>
+    <t>Algae and Eel-grass bottom with scattered coralline boulders and small patches of sand</t>
+  </si>
+  <si>
+    <t>sand, coral rocks, algae</t>
+  </si>
+  <si>
+    <t>15' - 25'</t>
+  </si>
+  <si>
+    <t>Living Coral Reef</t>
+  </si>
+  <si>
+    <t>Living coral, sand, hydroids</t>
+  </si>
+  <si>
+    <t>150 yds</t>
+  </si>
+  <si>
+    <t>Coral Reef - Maximum growth about 1 m high, sand bottom seaward</t>
+  </si>
+  <si>
+    <t>coral and sand</t>
+  </si>
+  <si>
+    <t>100 m</t>
+  </si>
+  <si>
+    <t>Mangrove and Rocks(volcanic)</t>
+  </si>
+  <si>
+    <t>sandy mud, rocks</t>
+  </si>
+  <si>
+    <t>Mangroves</t>
+  </si>
+  <si>
+    <t>Dip Net</t>
+  </si>
+  <si>
+    <t>sand flat wifh small tide pools containing small patches of eel grass</t>
+  </si>
+  <si>
+    <t>sand and eel grass</t>
+  </si>
+  <si>
+    <t>10 - 100 yds</t>
+  </si>
+  <si>
+    <t>Eel grass</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>300 m</t>
+  </si>
+  <si>
+    <t>R, dip net, and "decompression dive"</t>
+  </si>
+  <si>
+    <t>Coral, rubble, rock</t>
+  </si>
+  <si>
+    <t>coral, rubble, rock</t>
+  </si>
+  <si>
+    <t>20 - 30'</t>
+  </si>
+  <si>
+    <t>rubble, sand, and mostly coral</t>
+  </si>
+  <si>
+    <t>55 - 70'</t>
+  </si>
+  <si>
+    <t>rock, rubble, some coral</t>
+  </si>
+  <si>
+    <t>rubble, sand, some coral</t>
+  </si>
+  <si>
+    <t>150 m</t>
+  </si>
+  <si>
+    <t>Rock and mostly coral, very little face of drop off</t>
+  </si>
+  <si>
+    <t>rubble</t>
+  </si>
+  <si>
+    <t>Sand flat with eel grass and Halophila and several coralline rocks</t>
+  </si>
+  <si>
+    <t>Coral rock, sand and silt, eel grass and Halophila</t>
+  </si>
+  <si>
+    <t>0 - 75 m</t>
+  </si>
+  <si>
+    <t>ca 4 gal emulsified rotenone and 6 gals powdered derris root</t>
+  </si>
+  <si>
+    <t>Rocky face of drop off - some coral but damn little</t>
+  </si>
+  <si>
+    <t>Rubble</t>
+  </si>
+  <si>
+    <t>Small coral heads</t>
+  </si>
+  <si>
+    <t>Coral, eel grass</t>
+  </si>
+  <si>
+    <t>co (?)</t>
+  </si>
+  <si>
+    <t>Turbinaria sp on coral; eel grass between coral heads</t>
+  </si>
+  <si>
+    <t>Estuarine river mouth</t>
+  </si>
+  <si>
+    <t>Sand and silt</t>
+  </si>
+  <si>
+    <t>Enteromorpha sp on rocks along edge of shore</t>
+  </si>
+  <si>
+    <t>Rock, caves, rubble, sand, drop off</t>
+  </si>
+  <si>
+    <t>200'</t>
+  </si>
+  <si>
+    <t>Rocky reef</t>
+  </si>
+  <si>
+    <t>100'</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Spotty rocky reef, some coral</t>
+  </si>
+  <si>
+    <t>Rocky reef, some coral, sand</t>
+  </si>
+  <si>
+    <t>Rock and low coral on gray sandy mud</t>
+  </si>
+  <si>
+    <t>100 yds</t>
+  </si>
+  <si>
+    <t>Widened estuarine channel, bordered by mud/sand banks and nipa palms and debris</t>
+  </si>
+  <si>
+    <t>sand, mud, sludge</t>
+  </si>
+  <si>
+    <t>nipa palms</t>
+  </si>
+  <si>
+    <t>9 gals powdered derris root, 3/4 gal emulsified rotenone (homemade)</t>
+  </si>
+  <si>
+    <t>Estuarine slough</t>
+  </si>
+  <si>
+    <t>Mud with odor H2S</t>
+  </si>
+  <si>
+    <t>0 - 20'</t>
+  </si>
+  <si>
+    <t>9 gal derris root powder mixed with water, then by dip net</t>
+  </si>
+  <si>
+    <t>Coral reef drop off</t>
+  </si>
+  <si>
+    <t>50 yds</t>
+  </si>
+  <si>
+    <t>Cliff fare(?)</t>
+  </si>
+  <si>
+    <t>75 yds</t>
+  </si>
+  <si>
+    <t>Channel between two rocky ledges with living coral</t>
+  </si>
+  <si>
+    <t>White coral sand</t>
+  </si>
+  <si>
+    <t>1/4 miles</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Reef flat</t>
+  </si>
+  <si>
+    <t>Coral, rocky reef fare(?)</t>
+  </si>
+  <si>
+    <t>125 yds</t>
+  </si>
+  <si>
+    <t>Small inlet</t>
+  </si>
+  <si>
+    <t>Coral(?), detritus</t>
+  </si>
+  <si>
+    <t>C(?) reef fare, coral and rock</t>
+  </si>
+  <si>
+    <t>Shallow coral reef; small coral heads separated by sand or bed of Turbinaria sp. Algae and isolated clumps of Halymenia</t>
+  </si>
+  <si>
+    <t>coral, sand</t>
+  </si>
+  <si>
+    <t>200 yds</t>
+  </si>
+  <si>
+    <t>Turbinaria and Halymenia algae</t>
+  </si>
+  <si>
+    <t>rock, some coral at deep end, much coral at 20 - 60 feet - gradual slope</t>
+  </si>
+  <si>
+    <t>1 mile</t>
+  </si>
+  <si>
+    <t>rock and coral on gray sandy mud</t>
+  </si>
+  <si>
+    <t>Spear Gun, small grains and larger</t>
+  </si>
+  <si>
+    <t>0 - 50 m</t>
+  </si>
+  <si>
+    <t>Skin &amp; Scuba Diving</t>
+  </si>
+  <si>
+    <t>0 - 350 m</t>
+  </si>
+  <si>
+    <t>Collectoin method: Spear guns, both small grains and larger</t>
+  </si>
+  <si>
+    <t>0 - 60'</t>
+  </si>
+  <si>
+    <t>Coralline rocks surrounded by patches of living coral, small coral heads and sandy patches</t>
+  </si>
+  <si>
+    <t>living coral, coralline rock, sand</t>
+  </si>
+  <si>
+    <t>0 - 2 m</t>
+  </si>
+  <si>
+    <t>some scattered algae</t>
+  </si>
+  <si>
+    <t>? Fish Traps</t>
+  </si>
+  <si>
+    <t>living coral and coralline sand</t>
+  </si>
+  <si>
+    <t>1/4 mile</t>
+  </si>
+  <si>
+    <t>Coral reef</t>
+  </si>
+  <si>
+    <t>500'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1942,9 +2335,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2299,16 +2693,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O46" workbookViewId="0">
-      <selection activeCell="Y64" sqref="Y64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="29" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2379,24 +2776,42 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA1" t="s">
         <v>457</v>
       </c>
-      <c r="Y1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>460</v>
       </c>
-      <c r="AB1" t="s">
-        <v>463</v>
+      <c r="AD1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>454</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>457</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2405,10 +2820,10 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -2423,19 +2838,19 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="K2">
-        <v>9.4124999999999996</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="L2">
-        <v>123.241</v>
+        <v>123.12</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -2447,66 +2862,81 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>13.1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="K3">
-        <v>10.815</v>
+        <v>9.4132999999999996</v>
       </c>
       <c r="L3">
-        <v>121.008</v>
+        <v>123.3</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -2518,27 +2948,27 @@
         <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -2547,37 +2977,37 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="K4">
-        <v>9.4207999999999998</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="L4">
-        <v>123.29600000000001</v>
+        <v>123.342</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>325</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -2589,27 +3019,27 @@
         <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S4" t="s">
         <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>327</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W4">
-        <v>1.8</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -2618,37 +3048,37 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="K5">
-        <v>9.0457999999999998</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="L5">
-        <v>123.127</v>
+        <v>123.342</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>325</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -2660,27 +3090,27 @@
         <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W5">
-        <v>18.3</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2695,31 +3125,31 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="K6">
-        <v>9.0457999999999998</v>
+        <v>9.7716999999999992</v>
       </c>
       <c r="L6">
-        <v>123.127</v>
+        <v>123.342</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -2731,27 +3161,30 @@
         <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -2760,10 +3193,10 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2772,25 +3205,25 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="K7">
-        <v>9.0521999999999991</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="L7">
-        <v>122.992</v>
+        <v>123.273</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -2802,98 +3235,98 @@
         <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T7" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8">
-        <v>9.0508000000000006</v>
-      </c>
-      <c r="L8">
-        <v>123.042</v>
-      </c>
-      <c r="M8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" t="s">
-        <v>25</v>
-      </c>
-      <c r="T8" t="s">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
+      <c r="H8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="V8" s="2">
+        <v>24</v>
+      </c>
+      <c r="W8" s="2">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -2902,10 +3335,10 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
@@ -2914,25 +3347,25 @@
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="K9">
-        <v>9.5716999999999999</v>
+        <v>9.3949999999999996</v>
       </c>
       <c r="L9">
-        <v>123.15</v>
+        <v>123.25700000000001</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -2944,27 +3377,30 @@
         <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2976,34 +3412,34 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K10">
-        <v>9.6160999999999994</v>
+        <v>8.8617000000000008</v>
       </c>
       <c r="L10">
-        <v>123.16800000000001</v>
+        <v>123.41</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>355</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -3015,27 +3451,27 @@
         <v>25</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S10" t="s">
         <v>25</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="U10" t="s">
-        <v>88</v>
+        <v>357</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3044,37 +3480,37 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>359</v>
       </c>
       <c r="K11">
-        <v>10.853300000000001</v>
+        <v>9.58</v>
       </c>
       <c r="L11">
-        <v>121.004</v>
+        <v>123.15300000000001</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -3086,27 +3522,30 @@
         <v>25</v>
       </c>
       <c r="R11" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="T11" t="s">
+        <v>72</v>
       </c>
       <c r="U11" t="s">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
+      <c r="AD11" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -3118,34 +3557,34 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>365</v>
       </c>
       <c r="K12">
-        <v>10.918100000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="L12">
-        <v>121.03400000000001</v>
+        <v>123.063</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -3157,27 +3596,27 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S12" t="s">
         <v>25</v>
       </c>
       <c r="T12" t="s">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="U12" t="s">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>4.5999999999999996</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -3186,37 +3625,37 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>371</v>
       </c>
       <c r="K13">
-        <v>10.908300000000001</v>
+        <v>9.2249999999999996</v>
       </c>
       <c r="L13">
-        <v>121.051</v>
+        <v>123.48</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -3228,27 +3667,30 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="U13" t="s">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W13">
-        <v>0.8</v>
+        <v>30</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -3263,63 +3705,66 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="K14">
-        <v>9.4128000000000007</v>
+        <v>9.2149999999999999</v>
       </c>
       <c r="L14">
-        <v>123.325</v>
+        <v>123.48</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>451</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>452</v>
       </c>
       <c r="O14" t="s">
         <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="Q14" t="s">
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>1</v>
       </c>
-      <c r="W14">
-        <v>2</v>
+      <c r="AD14" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -3328,37 +3773,37 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>376</v>
       </c>
       <c r="K15">
-        <v>10.875</v>
+        <v>9.2249999999999996</v>
       </c>
       <c r="L15">
-        <v>120.93300000000001</v>
+        <v>123.47</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
       <c r="N15" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="O15" t="s">
         <v>25</v>
@@ -3370,27 +3815,30 @@
         <v>25</v>
       </c>
       <c r="R15" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -3399,37 +3847,37 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>381</v>
       </c>
       <c r="K16">
-        <v>10.878299999999999</v>
+        <v>9.2532999999999994</v>
       </c>
       <c r="L16">
-        <v>120.946</v>
+        <v>123.57</v>
       </c>
       <c r="M16" t="s">
-        <v>116</v>
+        <v>382</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="O16" t="s">
         <v>25</v>
@@ -3441,27 +3889,27 @@
         <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S16" t="s">
         <v>25</v>
       </c>
       <c r="T16" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="U16" t="s">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -3470,37 +3918,37 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>386</v>
       </c>
       <c r="K17">
-        <v>10.86</v>
+        <v>9.23</v>
       </c>
       <c r="L17">
-        <v>121.006</v>
+        <v>123.55800000000001</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>387</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>388</v>
       </c>
       <c r="O17" t="s">
         <v>25</v>
@@ -3512,27 +3960,27 @@
         <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S17" t="s">
         <v>25</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s">
-        <v>124</v>
+        <v>389</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -3541,37 +3989,37 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>391</v>
       </c>
       <c r="K18">
-        <v>10.9717</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="L18">
-        <v>121.208</v>
+        <v>123.27500000000001</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="O18" t="s">
         <v>25</v>
@@ -3583,27 +4031,27 @@
         <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S18" t="s">
         <v>25</v>
       </c>
       <c r="T18" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s">
-        <v>128</v>
+        <v>394</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3612,37 +4060,37 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="K19">
-        <v>10.9633</v>
+        <v>9.0517000000000003</v>
       </c>
       <c r="L19">
-        <v>121.226</v>
+        <v>122.995</v>
       </c>
       <c r="M19" t="s">
-        <v>131</v>
+        <v>397</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="O19" t="s">
         <v>25</v>
@@ -3654,27 +4102,30 @@
         <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S19" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s">
-        <v>77</v>
+        <v>399</v>
       </c>
       <c r="U19" t="s">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>3.1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>28636</v>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>401</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3683,37 +4134,37 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="K20">
-        <v>10.8817</v>
+        <v>9.0517000000000003</v>
       </c>
       <c r="L20">
-        <v>121.20399999999999</v>
+        <v>122.985</v>
       </c>
       <c r="M20" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="N20" t="s">
-        <v>135</v>
+        <v>404</v>
       </c>
       <c r="O20" t="s">
         <v>25</v>
@@ -3725,16 +4176,16 @@
         <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s">
         <v>136</v>
       </c>
       <c r="U20" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -3742,10 +4193,13 @@
       <c r="W20">
         <v>3</v>
       </c>
+      <c r="AD20" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -3757,34 +4211,34 @@
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
         <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="K21">
-        <v>10.8858</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="L21">
-        <v>121.193</v>
+        <v>123.273</v>
       </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>409</v>
       </c>
       <c r="O21" t="s">
         <v>25</v>
@@ -3796,27 +4250,27 @@
         <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S21" t="s">
         <v>25</v>
       </c>
       <c r="T21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>411</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -3825,37 +4279,37 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="K22">
-        <v>10.894399999999999</v>
+        <v>9.1082999999999998</v>
       </c>
       <c r="L22">
-        <v>121.19799999999999</v>
+        <v>122.923</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>413</v>
       </c>
       <c r="N22" t="s">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="O22" t="s">
         <v>25</v>
@@ -3867,27 +4321,30 @@
         <v>25</v>
       </c>
       <c r="R22" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s">
-        <v>145</v>
+        <v>415</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>416</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -3899,34 +4356,34 @@
         <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
       <c r="K23">
-        <v>10.2858</v>
+        <v>9.07</v>
       </c>
       <c r="L23">
-        <v>124.002</v>
+        <v>123.18</v>
       </c>
       <c r="M23" t="s">
-        <v>149</v>
+        <v>418</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>419</v>
       </c>
       <c r="O23" t="s">
         <v>25</v>
@@ -3938,27 +4395,30 @@
         <v>25</v>
       </c>
       <c r="R23" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="U23" t="s">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -3973,31 +4433,31 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="K24">
-        <v>9.1750000000000007</v>
+        <v>8.7467000000000006</v>
       </c>
       <c r="L24">
-        <v>123.46299999999999</v>
+        <v>123.212</v>
       </c>
       <c r="M24" t="s">
-        <v>156</v>
+        <v>423</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>424</v>
       </c>
       <c r="O24" t="s">
         <v>25</v>
@@ -4009,27 +4469,27 @@
         <v>25</v>
       </c>
       <c r="R24" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S24" t="s">
         <v>25</v>
       </c>
       <c r="T24" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="U24" t="s">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -4038,37 +4498,37 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>427</v>
       </c>
       <c r="K25">
-        <v>10.2858</v>
+        <v>8.8516999999999992</v>
       </c>
       <c r="L25">
-        <v>124.002</v>
+        <v>123.41200000000001</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>428</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="O25" t="s">
         <v>25</v>
@@ -4080,27 +4540,27 @@
         <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S25" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T25" t="s">
-        <v>162</v>
+        <v>430</v>
       </c>
       <c r="U25" t="s">
-        <v>163</v>
+        <v>431</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W25">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -4109,37 +4569,37 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>433</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>434</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="K26">
-        <v>9.3249999999999993</v>
+        <v>8.8567</v>
       </c>
       <c r="L26">
-        <v>123.313</v>
+        <v>123.41</v>
       </c>
       <c r="M26" t="s">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="N26" t="s">
-        <v>167</v>
+        <v>437</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -4151,27 +4611,30 @@
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S26" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="U26" t="s">
-        <v>168</v>
+        <v>438</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -4186,31 +4649,31 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="K27">
-        <v>9.3672000000000004</v>
+        <v>8.8550000000000004</v>
       </c>
       <c r="L27">
-        <v>123.274</v>
+        <v>123.41</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>441</v>
       </c>
       <c r="N27" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
@@ -4222,27 +4685,30 @@
         <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="S27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="U27" t="s">
-        <v>173</v>
+        <v>443</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>444</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -4251,37 +4717,37 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="K28">
-        <v>9.0771999999999995</v>
+        <v>8.8617000000000008</v>
       </c>
       <c r="L28">
-        <v>123.279</v>
+        <v>123.408</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>445</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
+        <v>446</v>
       </c>
       <c r="O28" t="s">
         <v>25</v>
@@ -4293,27 +4759,27 @@
         <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="S28" t="s">
         <v>25</v>
       </c>
       <c r="T28" t="s">
-        <v>162</v>
+        <v>447</v>
       </c>
       <c r="U28" t="s">
-        <v>179</v>
+        <v>448</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W28">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -4322,37 +4788,37 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>9.0736000000000008</v>
+        <v>9.4207999999999998</v>
       </c>
       <c r="L29">
-        <v>123.268</v>
+        <v>123.29600000000001</v>
       </c>
       <c r="M29" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="N29" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="O29" t="s">
         <v>25</v>
@@ -4370,21 +4836,36 @@
         <v>25</v>
       </c>
       <c r="T29" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>6</v>
+        <v>1.8</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -4393,37 +4874,37 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>9.0708000000000002</v>
+        <v>9.0457999999999998</v>
       </c>
       <c r="L30">
-        <v>123.27200000000001</v>
+        <v>123.127</v>
       </c>
       <c r="M30" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
         <v>25</v>
@@ -4435,27 +4916,42 @@
         <v>25</v>
       </c>
       <c r="R30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T30" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>6</v>
+        <v>18.3</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -4464,37 +4960,37 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>9.0771999999999995</v>
+        <v>9.0457999999999998</v>
       </c>
       <c r="L31">
-        <v>123.279</v>
+        <v>123.127</v>
       </c>
       <c r="M31" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="N31" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="O31" t="s">
         <v>25</v>
@@ -4506,27 +5002,45 @@
         <v>25</v>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T31" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="U31" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>39.5</v>
+        <v>12</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -4541,31 +5055,31 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>9.3833000000000002</v>
+        <v>9.0521999999999991</v>
       </c>
       <c r="L32">
-        <v>123.258</v>
+        <v>122.992</v>
       </c>
       <c r="M32" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="N32" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="O32" t="s">
         <v>25</v>
@@ -4580,24 +5094,42 @@
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -4618,25 +5150,25 @@
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
         <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>9.3306000000000004</v>
+        <v>9.0508000000000006</v>
       </c>
       <c r="L33">
-        <v>123.31</v>
+        <v>123.042</v>
       </c>
       <c r="M33" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="N33" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="O33" t="s">
         <v>25</v>
@@ -4654,21 +5186,39 @@
         <v>25</v>
       </c>
       <c r="T33" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>479</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -4677,37 +5227,37 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>9.5206</v>
+        <v>9.5716999999999999</v>
       </c>
       <c r="L34">
-        <v>123.667</v>
+        <v>123.15</v>
       </c>
       <c r="M34" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="N34" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="O34" t="s">
         <v>25</v>
@@ -4719,27 +5269,45 @@
         <v>25</v>
       </c>
       <c r="R34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T34" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -4751,34 +5319,34 @@
         <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>9.5206</v>
+        <v>9.6160999999999994</v>
       </c>
       <c r="L35">
-        <v>123.667</v>
+        <v>123.16800000000001</v>
       </c>
       <c r="M35" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="N35" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="O35" t="s">
         <v>25</v>
@@ -4796,21 +5364,39 @@
         <v>25</v>
       </c>
       <c r="T35" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="U35" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -4831,25 +5417,25 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="K36">
-        <v>9.1417000000000002</v>
+        <v>10.853300000000001</v>
       </c>
       <c r="L36">
-        <v>123.489</v>
+        <v>121.004</v>
       </c>
       <c r="M36" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="N36" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="O36" t="s">
         <v>25</v>
@@ -4866,22 +5452,40 @@
       <c r="S36" t="s">
         <v>25</v>
       </c>
-      <c r="T36" t="s">
-        <v>184</v>
+      <c r="T36">
+        <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>487</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -4890,37 +5494,37 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>9.4957999999999991</v>
+        <v>10.918100000000001</v>
       </c>
       <c r="L37">
-        <v>123.916</v>
+        <v>121.03400000000001</v>
       </c>
       <c r="M37" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="N37" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="O37" t="s">
         <v>25</v>
@@ -4937,61 +5541,79 @@
       <c r="S37" t="s">
         <v>25</v>
       </c>
-      <c r="T37">
-        <v>1</v>
+      <c r="T37" t="s">
+        <v>98</v>
       </c>
       <c r="U37" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>490</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="K38">
-        <v>9.4888999999999992</v>
+        <v>10.908300000000001</v>
       </c>
       <c r="L38">
-        <v>123.917</v>
+        <v>121.051</v>
       </c>
       <c r="M38" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="N38" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="O38" t="s">
         <v>25</v>
@@ -5009,21 +5631,36 @@
         <v>25</v>
       </c>
       <c r="T38" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>33.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -5050,19 +5687,19 @@
         <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="K39">
-        <v>9.5</v>
+        <v>9.4128000000000007</v>
       </c>
       <c r="L39">
-        <v>123.92100000000001</v>
+        <v>123.325</v>
       </c>
       <c r="M39" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="N39" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="O39" t="s">
         <v>25</v>
@@ -5080,60 +5717,78 @@
         <v>25</v>
       </c>
       <c r="T39" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="U39" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>496</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="K40">
-        <v>9.4888999999999992</v>
+        <v>10.875</v>
       </c>
       <c r="L40">
-        <v>123.917</v>
+        <v>120.93300000000001</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="N40" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="O40" t="s">
         <v>25</v>
@@ -5145,27 +5800,45 @@
         <v>25</v>
       </c>
       <c r="R40" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="U40" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -5174,37 +5847,37 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
         <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="K41">
-        <v>9.0667000000000009</v>
+        <v>10.878299999999999</v>
       </c>
       <c r="L41">
-        <v>123.14700000000001</v>
+        <v>120.946</v>
       </c>
       <c r="M41" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="N41" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="O41" t="s">
         <v>25</v>
@@ -5222,60 +5895,78 @@
         <v>25</v>
       </c>
       <c r="T41" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="U41" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>501</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
         <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>9.6160999999999994</v>
+        <v>10.815</v>
       </c>
       <c r="L42">
-        <v>123.16800000000001</v>
+        <v>121.008</v>
       </c>
       <c r="M42" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="O42" t="s">
         <v>25</v>
@@ -5287,27 +5978,42 @@
         <v>25</v>
       </c>
       <c r="R42" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="S42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T42" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
       <c r="W42">
-        <v>37</v>
+        <v>0.8</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -5316,37 +6022,37 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s">
         <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="K43">
-        <v>9.3833000000000002</v>
+        <v>10.86</v>
       </c>
       <c r="L43">
-        <v>123.258</v>
+        <v>121.006</v>
       </c>
       <c r="M43" t="s">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="N43" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="O43" t="s">
         <v>25</v>
@@ -5358,16 +6064,16 @@
         <v>25</v>
       </c>
       <c r="R43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S43" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T43" t="s">
         <v>77</v>
       </c>
       <c r="U43" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -5375,10 +6081,28 @@
       <c r="W43">
         <v>2</v>
       </c>
+      <c r="AD43" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>511</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -5399,25 +6123,25 @@
         <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="K44">
-        <v>9.0667000000000009</v>
+        <v>10.9717</v>
       </c>
       <c r="L44">
-        <v>123.27500000000001</v>
+        <v>121.208</v>
       </c>
       <c r="M44" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="O44" t="s">
         <v>25</v>
@@ -5435,21 +6159,39 @@
         <v>25</v>
       </c>
       <c r="T44" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="U44" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -5470,25 +6212,25 @@
         <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
         <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="K45">
-        <v>9.0832999999999995</v>
+        <v>10.9633</v>
       </c>
       <c r="L45">
-        <v>123.27500000000001</v>
+        <v>121.226</v>
       </c>
       <c r="M45" t="s">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="N45" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="O45" t="s">
         <v>25</v>
@@ -5503,24 +6245,42 @@
         <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>512</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>513</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>275</v>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>28636</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -5547,19 +6307,19 @@
         <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="K46">
-        <v>9.0855999999999995</v>
+        <v>10.8817</v>
       </c>
       <c r="L46">
-        <v>123.27500000000001</v>
+        <v>121.20399999999999</v>
       </c>
       <c r="M46" t="s">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="N46" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="O46" t="s">
         <v>25</v>
@@ -5571,27 +6331,42 @@
         <v>25</v>
       </c>
       <c r="R46" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T46" t="s">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="U46" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="V46">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>516</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -5603,34 +6378,34 @@
         <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="K47">
-        <v>9.1777999999999995</v>
+        <v>10.8858</v>
       </c>
       <c r="L47">
-        <v>123.44799999999999</v>
+        <v>121.193</v>
       </c>
       <c r="M47" t="s">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="N47" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="O47" t="s">
         <v>25</v>
@@ -5648,21 +6423,36 @@
         <v>25</v>
       </c>
       <c r="T47" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="U47" t="s">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>21</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>518</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -5683,25 +6473,25 @@
         <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="K48">
-        <v>9.09</v>
+        <v>10.894399999999999</v>
       </c>
       <c r="L48">
-        <v>123.274</v>
+        <v>121.19799999999999</v>
       </c>
       <c r="M48" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="N48" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="O48" t="s">
         <v>25</v>
@@ -5719,21 +6509,36 @@
         <v>25</v>
       </c>
       <c r="T48" t="s">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -5742,13 +6547,13 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -5760,19 +6565,19 @@
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="K49">
-        <v>9.1461000000000006</v>
+        <v>10.2858</v>
       </c>
       <c r="L49">
-        <v>123.473</v>
+        <v>124.002</v>
       </c>
       <c r="M49" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="N49" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="O49" t="s">
         <v>25</v>
@@ -5790,21 +6595,39 @@
         <v>25</v>
       </c>
       <c r="T49" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="U49" t="s">
-        <v>294</v>
-      </c>
-      <c r="V49" t="s">
-        <v>25</v>
-      </c>
-      <c r="W49" t="s">
-        <v>25</v>
+        <v>152</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>524</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -5813,37 +6636,37 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="K50">
-        <v>9.1410999999999998</v>
+        <v>9.1750000000000007</v>
       </c>
       <c r="L50">
-        <v>123.494</v>
+        <v>123.46299999999999</v>
       </c>
       <c r="M50" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="O50" t="s">
         <v>25</v>
@@ -5855,27 +6678,45 @@
         <v>25</v>
       </c>
       <c r="R50" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S50" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T50" t="s">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50">
-        <v>10.7</v>
+        <v>2</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>528</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -5890,7 +6731,7 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -5902,19 +6743,19 @@
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K51">
-        <v>9.0408000000000008</v>
+        <v>10.2858</v>
       </c>
       <c r="L51">
-        <v>123.127</v>
+        <v>124.002</v>
       </c>
       <c r="M51" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N51" t="s">
-        <v>301</v>
+        <v>161</v>
       </c>
       <c r="O51" t="s">
         <v>25</v>
@@ -5932,21 +6773,36 @@
         <v>44</v>
       </c>
       <c r="T51" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="U51" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="V51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>9.1</v>
+        <v>30</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -5961,31 +6817,31 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="K52">
-        <v>9.0500000000000007</v>
+        <v>9.3249999999999993</v>
       </c>
       <c r="L52">
-        <v>123.117</v>
+        <v>123.313</v>
       </c>
       <c r="M52" t="s">
-        <v>306</v>
+        <v>166</v>
       </c>
       <c r="N52" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="O52" t="s">
         <v>25</v>
@@ -5997,27 +6853,42 @@
         <v>25</v>
       </c>
       <c r="R52" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>532</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>533</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -6026,10 +6897,10 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
@@ -6038,25 +6909,25 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K53">
-        <v>9.0500000000000007</v>
+        <v>9.3672000000000004</v>
       </c>
       <c r="L53">
-        <v>123.12</v>
+        <v>123.274</v>
       </c>
       <c r="M53" t="s">
-        <v>311</v>
+        <v>122</v>
       </c>
       <c r="N53" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="O53" t="s">
         <v>25</v>
@@ -6068,42 +6939,42 @@
         <v>25</v>
       </c>
       <c r="R53" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="S53" t="s">
         <v>25</v>
       </c>
-      <c r="T53">
-        <v>13.1</v>
+      <c r="T53" t="s">
+        <v>172</v>
       </c>
       <c r="U53" t="s">
-        <v>312</v>
+        <v>173</v>
       </c>
       <c r="V53">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>13.1</v>
-      </c>
-      <c r="X53" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>462</v>
-      </c>
-      <c r="AB53">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>490</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>314</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -6112,37 +6983,37 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="K54">
-        <v>9.4132999999999996</v>
+        <v>9.0771999999999995</v>
       </c>
       <c r="L54">
-        <v>123.3</v>
+        <v>123.279</v>
       </c>
       <c r="M54" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
       <c r="N54" t="s">
-        <v>319</v>
+        <v>178</v>
       </c>
       <c r="O54" t="s">
         <v>25</v>
@@ -6154,27 +7025,42 @@
         <v>25</v>
       </c>
       <c r="R54" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S54" t="s">
         <v>25</v>
       </c>
       <c r="T54" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="U54" t="s">
-        <v>319</v>
+        <v>179</v>
       </c>
       <c r="V54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -6186,34 +7072,34 @@
         <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="I55" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="K55">
-        <v>9.9250000000000007</v>
+        <v>9.0736000000000008</v>
       </c>
       <c r="L55">
-        <v>123.342</v>
+        <v>123.268</v>
       </c>
       <c r="M55" t="s">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="N55" t="s">
-        <v>326</v>
+        <v>183</v>
       </c>
       <c r="O55" t="s">
         <v>25</v>
@@ -6225,27 +7111,42 @@
         <v>25</v>
       </c>
       <c r="R55" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S55" t="s">
         <v>25</v>
       </c>
       <c r="T55" t="s">
-        <v>327</v>
+        <v>184</v>
       </c>
       <c r="U55" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="V55">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>539</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -6260,31 +7161,31 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="K56">
-        <v>9.9250000000000007</v>
+        <v>9.0708000000000002</v>
       </c>
       <c r="L56">
-        <v>123.342</v>
+        <v>123.27200000000001</v>
       </c>
       <c r="M56" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="N56" t="s">
-        <v>330</v>
+        <v>189</v>
       </c>
       <c r="O56" t="s">
         <v>25</v>
@@ -6296,27 +7197,42 @@
         <v>25</v>
       </c>
       <c r="R56" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S56" t="s">
         <v>25</v>
       </c>
-      <c r="T56">
-        <v>30</v>
+      <c r="T56" t="s">
+        <v>184</v>
       </c>
       <c r="U56" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="V56">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>541</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -6325,37 +7241,37 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="J57" t="s">
-        <v>332</v>
+        <v>193</v>
       </c>
       <c r="K57">
-        <v>9.7716999999999992</v>
+        <v>9.0771999999999995</v>
       </c>
       <c r="L57">
-        <v>123.342</v>
+        <v>123.279</v>
       </c>
       <c r="M57" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="N57" t="s">
-        <v>334</v>
+        <v>195</v>
       </c>
       <c r="O57" t="s">
         <v>25</v>
@@ -6367,27 +7283,42 @@
         <v>25</v>
       </c>
       <c r="R57" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S57" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T57" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="U57" t="s">
-        <v>334</v>
+        <v>197</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>39.5</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -6396,13 +7327,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -6414,19 +7345,19 @@
         <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="K58">
-        <v>9.0749999999999993</v>
+        <v>9.3833000000000002</v>
       </c>
       <c r="L58">
-        <v>123.273</v>
+        <v>123.258</v>
       </c>
       <c r="M58" t="s">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="N58" t="s">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="O58" t="s">
         <v>25</v>
@@ -6438,27 +7369,42 @@
         <v>25</v>
       </c>
       <c r="R58" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S58" t="s">
         <v>25</v>
       </c>
       <c r="T58" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="V58">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -6467,37 +7413,37 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
-      </c>
-      <c r="K59" t="s">
-        <v>25</v>
-      </c>
-      <c r="L59" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="K59">
+        <v>9.4124999999999996</v>
+      </c>
+      <c r="L59">
+        <v>123.241</v>
       </c>
       <c r="M59" t="s">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>343</v>
+        <v>31</v>
       </c>
       <c r="O59" t="s">
         <v>25</v>
@@ -6509,27 +7455,45 @@
         <v>25</v>
       </c>
       <c r="R59" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
-      </c>
-      <c r="T59" t="s">
-        <v>345</v>
+        <v>33</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="V59">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>547</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>549</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -6550,25 +7514,25 @@
         <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>347</v>
-      </c>
-      <c r="K60" t="s">
-        <v>25</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
+        <v>203</v>
+      </c>
+      <c r="K60">
+        <v>9.3306000000000004</v>
+      </c>
+      <c r="L60">
+        <v>123.31</v>
       </c>
       <c r="M60" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
       <c r="N60" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="O60" t="s">
         <v>25</v>
@@ -6580,27 +7544,45 @@
         <v>25</v>
       </c>
       <c r="R60" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S60" t="s">
         <v>25</v>
       </c>
       <c r="T60" t="s">
-        <v>345</v>
+        <v>72</v>
       </c>
       <c r="U60" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="V60">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>554</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -6612,34 +7594,34 @@
         <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="I61" t="s">
         <v>25</v>
       </c>
       <c r="J61" t="s">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="K61">
-        <v>9.3949999999999996</v>
+        <v>9.5206</v>
       </c>
       <c r="L61">
-        <v>123.25700000000001</v>
+        <v>123.667</v>
       </c>
       <c r="M61" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="N61" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="O61" t="s">
         <v>25</v>
@@ -6651,27 +7633,42 @@
         <v>25</v>
       </c>
       <c r="R61" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T61" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="U61" t="s">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>555</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -6686,31 +7683,31 @@
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="I62" t="s">
         <v>25</v>
       </c>
       <c r="J62" t="s">
-        <v>356</v>
+        <v>216</v>
       </c>
       <c r="K62">
-        <v>8.8617000000000008</v>
+        <v>9.5206</v>
       </c>
       <c r="L62">
-        <v>123.41</v>
+        <v>123.667</v>
       </c>
       <c r="M62" t="s">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="N62" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
       <c r="O62" t="s">
         <v>25</v>
@@ -6722,27 +7719,42 @@
         <v>25</v>
       </c>
       <c r="R62" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S62" t="s">
         <v>25</v>
       </c>
       <c r="T62" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="U62" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>557</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>558</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -6751,37 +7763,37 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" t="s">
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
         <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="K63">
-        <v>9.58</v>
+        <v>9.1417000000000002</v>
       </c>
       <c r="L63">
-        <v>123.15300000000001</v>
+        <v>123.489</v>
       </c>
       <c r="M63" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="N63" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="O63" t="s">
         <v>25</v>
@@ -6793,27 +7805,42 @@
         <v>25</v>
       </c>
       <c r="R63" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S63" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="T63" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="U63" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>367</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
@@ -6822,37 +7849,37 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
         <v>25</v>
       </c>
       <c r="J64" t="s">
-        <v>368</v>
+        <v>226</v>
       </c>
       <c r="K64">
-        <v>9.0500000000000007</v>
+        <v>9.4957999999999991</v>
       </c>
       <c r="L64">
-        <v>123.063</v>
+        <v>123.916</v>
       </c>
       <c r="M64" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="N64" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="O64" t="s">
         <v>25</v>
@@ -6864,33 +7891,48 @@
         <v>25</v>
       </c>
       <c r="R64" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S64" t="s">
         <v>25</v>
       </c>
-      <c r="T64" t="s">
-        <v>371</v>
+      <c r="T64">
+        <v>1</v>
       </c>
       <c r="U64" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>563</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>500</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>55</v>
@@ -6899,31 +7941,31 @@
         <v>208</v>
       </c>
       <c r="F65" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="J65" t="s">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="K65">
-        <v>9.2249999999999996</v>
+        <v>9.4888999999999992</v>
       </c>
       <c r="L65">
-        <v>123.48</v>
+        <v>123.917</v>
       </c>
       <c r="M65" t="s">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="N65" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="O65" t="s">
         <v>25</v>
@@ -6935,27 +7977,42 @@
         <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S65" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T65" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="U65" t="s">
-        <v>377</v>
+        <v>237</v>
       </c>
       <c r="V65">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>30</v>
+        <v>33.5</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
@@ -6964,13 +8021,13 @@
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
@@ -6982,19 +8039,19 @@
         <v>25</v>
       </c>
       <c r="J66" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="K66">
-        <v>9.2249999999999996</v>
+        <v>9.5</v>
       </c>
       <c r="L66">
-        <v>123.47</v>
+        <v>123.92100000000001</v>
       </c>
       <c r="M66" t="s">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N66" t="s">
-        <v>381</v>
+        <v>241</v>
       </c>
       <c r="O66" t="s">
         <v>25</v>
@@ -7006,16 +8063,16 @@
         <v>25</v>
       </c>
       <c r="R66" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S66" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T66" t="s">
         <v>72</v>
       </c>
       <c r="U66" t="s">
-        <v>382</v>
+        <v>242</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -7023,16 +8080,31 @@
       <c r="W66">
         <v>1</v>
       </c>
+      <c r="AD66" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
         <v>55</v>
@@ -7041,31 +8113,31 @@
         <v>208</v>
       </c>
       <c r="F67" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G67" t="s">
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="J67" t="s">
-        <v>384</v>
+        <v>244</v>
       </c>
       <c r="K67">
-        <v>9.2532999999999994</v>
+        <v>9.4888999999999992</v>
       </c>
       <c r="L67">
-        <v>123.57</v>
+        <v>123.917</v>
       </c>
       <c r="M67" t="s">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="N67" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="O67" t="s">
         <v>25</v>
@@ -7077,27 +8149,42 @@
         <v>25</v>
       </c>
       <c r="R67" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S67" t="s">
         <v>25</v>
       </c>
       <c r="T67" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="U67" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>568</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -7112,31 +8199,31 @@
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="I68" t="s">
         <v>25</v>
       </c>
       <c r="J68" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="K68">
-        <v>9.23</v>
+        <v>9.0667000000000009</v>
       </c>
       <c r="L68">
-        <v>123.55800000000001</v>
+        <v>123.14700000000001</v>
       </c>
       <c r="M68" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="N68" t="s">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="O68" t="s">
         <v>25</v>
@@ -7148,27 +8235,42 @@
         <v>25</v>
       </c>
       <c r="R68" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S68" t="s">
         <v>25</v>
       </c>
       <c r="T68" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="U68" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>569</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -7177,10 +8279,10 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
         <v>26</v>
@@ -7189,25 +8291,25 @@
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I69" t="s">
         <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="K69">
-        <v>9.3699999999999992</v>
+        <v>9.6160999999999994</v>
       </c>
       <c r="L69">
-        <v>123.27500000000001</v>
+        <v>123.16800000000001</v>
       </c>
       <c r="M69" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="N69" t="s">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="O69" t="s">
         <v>25</v>
@@ -7219,27 +8321,42 @@
         <v>25</v>
       </c>
       <c r="R69" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S69" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T69" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="U69" t="s">
-        <v>397</v>
+        <v>257</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>512</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
@@ -7266,19 +8383,19 @@
         <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>399</v>
+        <v>259</v>
       </c>
       <c r="K70">
-        <v>9.0517000000000003</v>
+        <v>9.3833000000000002</v>
       </c>
       <c r="L70">
-        <v>122.995</v>
+        <v>123.258</v>
       </c>
       <c r="M70" t="s">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N70" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="O70" t="s">
         <v>25</v>
@@ -7290,27 +8407,42 @@
         <v>25</v>
       </c>
       <c r="R70" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="S70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T70" t="s">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="U70" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
       <c r="W70">
-        <v>3.1</v>
+        <v>2</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -7319,37 +8451,37 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
         <v>25</v>
       </c>
       <c r="J71" t="s">
-        <v>405</v>
+        <v>264</v>
       </c>
       <c r="K71">
-        <v>9.0517000000000003</v>
+        <v>9.0667000000000009</v>
       </c>
       <c r="L71">
-        <v>122.985</v>
+        <v>123.27500000000001</v>
       </c>
       <c r="M71" t="s">
-        <v>406</v>
+        <v>265</v>
       </c>
       <c r="N71" t="s">
-        <v>407</v>
+        <v>266</v>
       </c>
       <c r="O71" t="s">
         <v>25</v>
@@ -7361,27 +8493,42 @@
         <v>25</v>
       </c>
       <c r="R71" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S71" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T71" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="U71" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>409</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
@@ -7390,37 +8537,37 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
         <v>25</v>
       </c>
       <c r="J72" t="s">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="K72">
-        <v>9.0749999999999993</v>
+        <v>9.0832999999999995</v>
       </c>
       <c r="L72">
-        <v>123.273</v>
+        <v>123.27500000000001</v>
       </c>
       <c r="M72" t="s">
-        <v>411</v>
+        <v>265</v>
       </c>
       <c r="N72" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="O72" t="s">
         <v>25</v>
@@ -7432,27 +8579,45 @@
         <v>25</v>
       </c>
       <c r="R72" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="S72" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="T72" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="U72" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>580</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>414</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
@@ -7461,37 +8626,37 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
         <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>415</v>
+        <v>276</v>
       </c>
       <c r="K73">
-        <v>9.1082999999999998</v>
+        <v>9.0855999999999995</v>
       </c>
       <c r="L73">
-        <v>122.923</v>
+        <v>123.27500000000001</v>
       </c>
       <c r="M73" t="s">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="N73" t="s">
-        <v>417</v>
+        <v>277</v>
       </c>
       <c r="O73" t="s">
         <v>25</v>
@@ -7503,27 +8668,42 @@
         <v>25</v>
       </c>
       <c r="R73" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S73" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T73" t="s">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="U73" t="s">
-        <v>418</v>
+        <v>279</v>
       </c>
       <c r="V73">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W73">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -7535,34 +8715,34 @@
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
         <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>420</v>
+        <v>282</v>
       </c>
       <c r="K74">
-        <v>9.07</v>
+        <v>9.1777999999999995</v>
       </c>
       <c r="L74">
-        <v>123.18</v>
+        <v>123.44799999999999</v>
       </c>
       <c r="M74" t="s">
-        <v>421</v>
+        <v>283</v>
       </c>
       <c r="N74" t="s">
-        <v>422</v>
+        <v>284</v>
       </c>
       <c r="O74" t="s">
         <v>25</v>
@@ -7574,27 +8754,42 @@
         <v>25</v>
       </c>
       <c r="R74" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S74" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="T74" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="U74" t="s">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>584</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>585</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>424</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
@@ -7609,31 +8804,31 @@
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>354</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
         <v>25</v>
       </c>
       <c r="J75" t="s">
-        <v>425</v>
+        <v>287</v>
       </c>
       <c r="K75">
-        <v>8.7467000000000006</v>
+        <v>9.09</v>
       </c>
       <c r="L75">
-        <v>123.212</v>
+        <v>123.274</v>
       </c>
       <c r="M75" t="s">
-        <v>426</v>
+        <v>265</v>
       </c>
       <c r="N75" t="s">
-        <v>427</v>
+        <v>288</v>
       </c>
       <c r="O75" t="s">
         <v>25</v>
@@ -7645,27 +8840,42 @@
         <v>25</v>
       </c>
       <c r="R75" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S75" t="s">
         <v>25</v>
       </c>
       <c r="T75" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="U75" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
@@ -7680,31 +8890,31 @@
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>354</v>
+        <v>154</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
         <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>430</v>
+        <v>291</v>
       </c>
       <c r="K76">
-        <v>8.8516999999999992</v>
+        <v>9.1461000000000006</v>
       </c>
       <c r="L76">
-        <v>123.41200000000001</v>
+        <v>123.473</v>
       </c>
       <c r="M76" t="s">
-        <v>431</v>
+        <v>292</v>
       </c>
       <c r="N76" t="s">
-        <v>432</v>
+        <v>293</v>
       </c>
       <c r="O76" t="s">
         <v>25</v>
@@ -7716,27 +8926,42 @@
         <v>25</v>
       </c>
       <c r="R76" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="S76" t="s">
         <v>25</v>
       </c>
       <c r="T76" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="U76" t="s">
-        <v>434</v>
-      </c>
-      <c r="V76">
-        <v>14</v>
-      </c>
-      <c r="W76">
-        <v>21</v>
+        <v>294</v>
+      </c>
+      <c r="V76" t="s">
+        <v>25</v>
+      </c>
+      <c r="W76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>435</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -7748,34 +8973,34 @@
         <v>55</v>
       </c>
       <c r="E77" t="s">
-        <v>436</v>
+        <v>208</v>
       </c>
       <c r="F77" t="s">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="I77" t="s">
         <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>438</v>
+        <v>295</v>
       </c>
       <c r="K77">
-        <v>8.8567</v>
+        <v>9.1410999999999998</v>
       </c>
       <c r="L77">
-        <v>123.41</v>
+        <v>123.494</v>
       </c>
       <c r="M77" t="s">
-        <v>439</v>
+        <v>283</v>
       </c>
       <c r="N77" t="s">
-        <v>440</v>
+        <v>296</v>
       </c>
       <c r="O77" t="s">
         <v>25</v>
@@ -7787,27 +9012,42 @@
         <v>25</v>
       </c>
       <c r="R77" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="S77" t="s">
         <v>44</v>
       </c>
       <c r="T77" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="U77" t="s">
-        <v>441</v>
+        <v>298</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>5</v>
+        <v>10.7</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -7822,31 +9062,31 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="I78" t="s">
         <v>25</v>
       </c>
       <c r="J78" t="s">
-        <v>443</v>
+        <v>305</v>
       </c>
       <c r="K78">
-        <v>8.8550000000000004</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="L78">
-        <v>123.41</v>
+        <v>123.117</v>
       </c>
       <c r="M78" t="s">
-        <v>444</v>
+        <v>306</v>
       </c>
       <c r="N78" t="s">
-        <v>445</v>
+        <v>307</v>
       </c>
       <c r="O78" t="s">
         <v>25</v>
@@ -7858,27 +9098,30 @@
         <v>25</v>
       </c>
       <c r="R78" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="S78" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T78" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="U78" t="s">
-        <v>446</v>
+        <v>308</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
       <c r="W78">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>469</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>447</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -7887,37 +9130,37 @@
         <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
         <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
         <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>438</v>
+        <v>300</v>
       </c>
       <c r="K79">
-        <v>8.8617000000000008</v>
+        <v>9.0408000000000008</v>
       </c>
       <c r="L79">
-        <v>123.408</v>
+        <v>123.127</v>
       </c>
       <c r="M79" t="s">
-        <v>448</v>
+        <v>49</v>
       </c>
       <c r="N79" t="s">
-        <v>449</v>
+        <v>301</v>
       </c>
       <c r="O79" t="s">
         <v>25</v>
@@ -7929,96 +9172,43 @@
         <v>25</v>
       </c>
       <c r="R79" t="s">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="S79" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="T79" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="U79" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="V79">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W79">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>452</v>
-      </c>
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" t="s">
-        <v>281</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s">
-        <v>154</v>
-      </c>
-      <c r="I80" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" t="s">
-        <v>453</v>
-      </c>
-      <c r="K80">
-        <v>9.2149999999999999</v>
-      </c>
-      <c r="L80">
-        <v>123.48</v>
-      </c>
-      <c r="M80" t="s">
-        <v>454</v>
-      </c>
-      <c r="N80" t="s">
-        <v>455</v>
-      </c>
-      <c r="O80" t="s">
-        <v>25</v>
-      </c>
-      <c r="P80" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>25</v>
-      </c>
-      <c r="R80" t="s">
-        <v>25</v>
-      </c>
-      <c r="S80" t="s">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s">
-        <v>72</v>
-      </c>
-      <c r="U80" t="s">
-        <v>456</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>1</v>
+        <v>9.1</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>590</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB79">
+    <sortCondition ref="U2:U79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/scripts/station_info.xlsx
+++ b/scripts/station_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\fish_biodiversity\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D2F2A0-4B28-4F89-BE0E-AAB7693C64D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72383A50-93A6-4A64-B7E5-B7F256C797BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11535" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="station_info" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,30 @@
     <author>Christopher Bird</author>
   </authors>
   <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2A05E23D-F768-47F7-BE44-392E141E14A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+this column was made by Rebecca Ruiz, it is a combination of information from the database query (on the left) and the field data records</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
@@ -61,6 +85,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{4A0319BF-A10E-41CF-A15F-81CE4842C480}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+word for word, the method of capture field from the field data records</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{4A226C12-EEA2-4085-BDE6-9B5C4048D2D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+made by Rebecca Ruiz, inferredf from method_capture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{ECD2448F-E351-4AA5-AAB2-3A02923511C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sum of volumes from method_capture column</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1448,9 +1544,6 @@
     <t>method_capture_gal</t>
   </si>
   <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
     <t>vegetation</t>
   </si>
   <si>
@@ -1895,9 +1988,6 @@
     <t>pronoxfish; resin</t>
   </si>
   <si>
-    <t>1; 1</t>
-  </si>
-  <si>
     <t>sand, rocks, mud</t>
   </si>
   <si>
@@ -1953,13 +2043,19 @@
   </si>
   <si>
     <t>Collection method: Spear guns, both small grains and larger</t>
+  </si>
+  <si>
+    <t>collection_method_type</t>
+  </si>
+  <si>
+    <t>collection_method_manual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,6 +2202,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2455,12 +2564,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2816,23 +2926,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD79"/>
+  <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection activeCell="U1" sqref="U1"/>
-      <selection pane="topRight" activeCell="AC29" sqref="AC29"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="9.06640625" style="2"/>
-    <col min="22" max="23" width="9.1328125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="30" max="30" width="9.1328125" customWidth="1"/>
+    <col min="1" max="21" width="9" style="2"/>
+    <col min="22" max="23" width="9.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1"/>
+    <col min="25" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="30" width="67.5703125" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2902,8 +3012,8 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>460</v>
+      <c r="X1" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="Y1" t="s">
         <v>454</v>
@@ -2915,16 +3025,19 @@
         <v>456</v>
       </c>
       <c r="AB1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AC1" t="s">
         <v>457</v>
       </c>
       <c r="AD1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>309</v>
       </c>
@@ -2995,7 +3108,7 @@
         <v>13.1</v>
       </c>
       <c r="Y2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="Z2" t="s">
         <v>25</v>
@@ -3006,14 +3119,14 @@
       <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>458</v>
       </c>
-      <c r="AD2">
+      <c r="AE2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>314</v>
       </c>
@@ -3084,25 +3197,25 @@
         <v>19</v>
       </c>
       <c r="Y3" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="s">
         <v>588</v>
       </c>
-      <c r="Z3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>589</v>
-      </c>
       <c r="AB3" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>458</v>
       </c>
-      <c r="AD3">
+      <c r="AE3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>321</v>
       </c>
@@ -3176,22 +3289,22 @@
         <v>25</v>
       </c>
       <c r="Z4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA4" t="s">
         <v>590</v>
       </c>
-      <c r="AA4" t="s">
-        <v>591</v>
-      </c>
       <c r="AB4" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>44</v>
       </c>
-      <c r="AD4">
+      <c r="AE4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>328</v>
       </c>
@@ -3265,22 +3378,22 @@
         <v>25</v>
       </c>
       <c r="Z5" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA5" t="s">
         <v>592</v>
       </c>
-      <c r="AA5" t="s">
-        <v>593</v>
-      </c>
       <c r="AB5" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>44</v>
       </c>
-      <c r="AD5">
+      <c r="AE5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>331</v>
       </c>
@@ -3350,29 +3463,29 @@
       <c r="W6" s="2">
         <v>1</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>462</v>
+      <c r="X6" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="AB6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD6">
+      <c r="AE6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>335</v>
       </c>
@@ -3446,22 +3559,22 @@
         <v>25</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
@@ -3531,27 +3644,31 @@
       <c r="W8" s="2">
         <v>30</v>
       </c>
-      <c r="X8" s="2"/>
       <c r="Y8" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="5">
         <v>2</v>
       </c>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>346</v>
       </c>
@@ -3621,11 +3738,11 @@
       <c r="W9" s="2">
         <v>2</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>462</v>
+      <c r="X9" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>25</v>
@@ -3636,14 +3753,14 @@
       <c r="AB9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>350</v>
       </c>
@@ -3714,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>25</v>
@@ -3725,14 +3842,14 @@
       <c r="AB10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AE10" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>358</v>
       </c>
@@ -3802,14 +3919,14 @@
       <c r="W11" s="2">
         <v>1</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>25</v>
@@ -3817,14 +3934,14 @@
       <c r="AB11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -3906,14 +4023,14 @@
       <c r="AB12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AE12" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>370</v>
       </c>
@@ -3983,29 +4100,29 @@
       <c r="W13" s="2">
         <v>30</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>462</v>
+      <c r="X13" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y13" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>449</v>
       </c>
@@ -4075,14 +4192,14 @@
       <c r="W14" s="2">
         <v>1</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>462</v>
+      <c r="X14" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>25</v>
@@ -4090,14 +4207,14 @@
       <c r="AB14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="AD14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AE14" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>375</v>
       </c>
@@ -4167,11 +4284,11 @@
       <c r="W15" s="2">
         <v>1</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>462</v>
+      <c r="X15" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>25</v>
@@ -4182,14 +4299,14 @@
       <c r="AB15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>380</v>
       </c>
@@ -4260,7 +4377,7 @@
         <v>30</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>25</v>
@@ -4271,14 +4388,14 @@
       <c r="AB16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>385</v>
       </c>
@@ -4352,22 +4469,23 @@
         <v>25</v>
       </c>
       <c r="Z17" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>609</v>
+      <c r="AE17" s="5">
+        <f>1+1</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>390</v>
       </c>
@@ -4441,7 +4559,7 @@
         <v>25</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>25</v>
@@ -4449,14 +4567,14 @@
       <c r="AB18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD18" s="4">
+      <c r="AD18" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE18" s="5">
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>395</v>
       </c>
@@ -4526,11 +4644,11 @@
       <c r="W19" s="2">
         <v>3.1</v>
       </c>
-      <c r="X19" s="2" t="s">
-        <v>462</v>
+      <c r="X19" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>25</v>
@@ -4541,14 +4659,14 @@
       <c r="AB19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE19" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>401</v>
       </c>
@@ -4618,14 +4736,14 @@
       <c r="W20" s="2">
         <v>3</v>
       </c>
-      <c r="X20" s="2" t="s">
-        <v>462</v>
+      <c r="X20" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>25</v>
@@ -4633,14 +4751,14 @@
       <c r="AB20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE20" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>406</v>
       </c>
@@ -4711,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>25</v>
@@ -4722,14 +4840,14 @@
       <c r="AB21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>411</v>
       </c>
@@ -4799,11 +4917,11 @@
       <c r="W22" s="2">
         <v>2</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>462</v>
+      <c r="X22" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>25</v>
@@ -4814,14 +4932,14 @@
       <c r="AB22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>416</v>
       </c>
@@ -4891,11 +5009,11 @@
       <c r="W23" s="2">
         <v>3</v>
       </c>
-      <c r="X23" s="2" t="s">
-        <v>462</v>
+      <c r="X23" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>25</v>
@@ -4906,14 +5024,14 @@
       <c r="AB23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AE23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>421</v>
       </c>
@@ -4984,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>25</v>
@@ -4995,14 +5113,14 @@
       <c r="AB24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AE24" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>426</v>
       </c>
@@ -5073,7 +5191,7 @@
         <v>21</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>25</v>
@@ -5084,14 +5202,14 @@
       <c r="AB25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AE25" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>432</v>
       </c>
@@ -5161,29 +5279,29 @@
       <c r="W26" s="2">
         <v>5</v>
       </c>
-      <c r="X26" s="2" t="s">
-        <v>462</v>
+      <c r="X26" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AE26" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>439</v>
       </c>
@@ -5253,14 +5371,14 @@
       <c r="W27" s="2">
         <v>21</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>462</v>
+      <c r="X27" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>25</v>
@@ -5268,14 +5386,14 @@
       <c r="AB27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>444</v>
       </c>
@@ -5346,7 +5464,7 @@
         <v>18</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>25</v>
@@ -5357,14 +5475,14 @@
       <c r="AB28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -5434,24 +5552,24 @@
       <c r="W29" s="2">
         <v>1.8</v>
       </c>
-      <c r="X29" s="2" t="s">
+      <c r="X29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y29" t="s">
         <v>463</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>464</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>465</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>466</v>
       </c>
-      <c r="AB29" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -5521,24 +5639,24 @@
       <c r="W30" s="2">
         <v>18.3</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="X30" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y30" t="s">
         <v>468</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>469</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>470</v>
       </c>
-      <c r="AA30" t="s">
-        <v>471</v>
-      </c>
       <c r="AB30" t="s">
         <v>25</v>
       </c>
-      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -5608,26 +5726,26 @@
       <c r="W31" s="2">
         <v>12</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="X31" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y31" t="s">
         <v>468</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>469</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>470</v>
       </c>
-      <c r="AA31" t="s">
-        <v>471</v>
-      </c>
       <c r="AB31" t="s">
         <v>25</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -5697,26 +5815,26 @@
       <c r="W32" s="2">
         <v>1</v>
       </c>
-      <c r="X32" s="2" t="s">
-        <v>462</v>
+      <c r="X32" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y32" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z32" t="s">
         <v>472</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>473</v>
       </c>
-      <c r="AA32" t="s">
-        <v>474</v>
-      </c>
       <c r="AB32" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -5786,26 +5904,26 @@
       <c r="W33" s="2">
         <v>2</v>
       </c>
-      <c r="X33" s="2" t="s">
-        <v>468</v>
+      <c r="X33" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y33" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z33" t="s">
         <v>475</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>476</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD33" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AB33" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>478</v>
-      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -5875,26 +5993,26 @@
       <c r="W34" s="2">
         <v>1</v>
       </c>
-      <c r="X34" s="2" t="s">
-        <v>462</v>
+      <c r="X34" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y34" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z34" t="s">
         <v>479</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>480</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>481</v>
       </c>
-      <c r="AB34" t="s">
-        <v>482</v>
-      </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -5964,26 +6082,26 @@
       <c r="W35" s="2">
         <v>21</v>
       </c>
-      <c r="X35" s="2" t="s">
-        <v>462</v>
+      <c r="X35" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y35" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z35" t="s">
         <v>469</v>
       </c>
-      <c r="Z35" t="s">
-        <v>470</v>
-      </c>
       <c r="AA35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB35" t="s">
         <v>25</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -6053,26 +6171,26 @@
       <c r="W36" s="2">
         <v>1</v>
       </c>
-      <c r="X36" s="2" t="s">
-        <v>468</v>
+      <c r="X36" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y36" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z36" t="s">
         <v>484</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB36" t="s">
         <v>485</v>
       </c>
-      <c r="AA36" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>486</v>
-      </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -6142,26 +6260,26 @@
       <c r="W37" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X37" s="2" t="s">
-        <v>468</v>
+      <c r="X37" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y37" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z37" t="s">
         <v>487</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>488</v>
       </c>
-      <c r="AA37" t="s">
-        <v>489</v>
-      </c>
       <c r="AB37" t="s">
         <v>25</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -6231,24 +6349,24 @@
       <c r="W38" s="2">
         <v>0.8</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>468</v>
+      <c r="X38" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y38" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z38" t="s">
         <v>490</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>491</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>492</v>
       </c>
-      <c r="AB38" t="s">
-        <v>493</v>
-      </c>
-      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -6318,26 +6436,26 @@
       <c r="W39" s="2">
         <v>2</v>
       </c>
-      <c r="X39" s="2" t="s">
-        <v>468</v>
+      <c r="X39" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y39" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z39" t="s">
         <v>494</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>495</v>
       </c>
-      <c r="AA39" t="s">
-        <v>496</v>
-      </c>
       <c r="AB39" t="s">
         <v>25</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -6407,26 +6525,26 @@
       <c r="W40" s="2">
         <v>14</v>
       </c>
-      <c r="X40" s="2" t="s">
-        <v>468</v>
+      <c r="X40" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y40" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z40" t="s">
         <v>497</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>498</v>
       </c>
-      <c r="AA40" t="s">
-        <v>499</v>
-      </c>
       <c r="AB40" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC40" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD40" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -6496,26 +6614,26 @@
       <c r="W41" s="2">
         <v>17</v>
       </c>
-      <c r="X41" s="2" t="s">
-        <v>468</v>
+      <c r="X41" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y41" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z41" t="s">
         <v>500</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>501</v>
       </c>
-      <c r="AA41" t="s">
-        <v>502</v>
-      </c>
       <c r="AB41" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC41" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -6585,24 +6703,24 @@
       <c r="W42" s="2">
         <v>0.8</v>
       </c>
-      <c r="X42" s="2" t="s">
-        <v>462</v>
+      <c r="X42" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y42" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z42" t="s">
         <v>503</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB42" t="s">
         <v>504</v>
       </c>
-      <c r="AA42" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -6672,26 +6790,26 @@
       <c r="W43" s="2">
         <v>2</v>
       </c>
-      <c r="X43" s="2" t="s">
+      <c r="X43" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y43" t="s">
         <v>506</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>507</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>508</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>509</v>
       </c>
-      <c r="AB43" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -6761,26 +6879,26 @@
       <c r="W44" s="2">
         <v>14</v>
       </c>
-      <c r="X44" s="2" t="s">
-        <v>468</v>
+      <c r="X44" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y44" t="s">
         <v>25</v>
       </c>
       <c r="Z44" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA44" t="s">
         <v>501</v>
       </c>
-      <c r="AA44" t="s">
-        <v>502</v>
-      </c>
       <c r="AB44" t="s">
         <v>25</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -6850,26 +6968,26 @@
       <c r="W45" s="2">
         <v>2</v>
       </c>
-      <c r="X45" s="2" t="s">
+      <c r="X45" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y45" t="s">
         <v>468</v>
       </c>
-      <c r="Y45" t="s">
-        <v>469</v>
-      </c>
       <c r="Z45" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA45" t="s">
         <v>511</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD45" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="AB45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC45" s="1" t="s">
-        <v>513</v>
-      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>28636</v>
       </c>
@@ -6939,24 +7057,24 @@
       <c r="W46" s="2">
         <v>3</v>
       </c>
-      <c r="X46" s="2" t="s">
-        <v>468</v>
+      <c r="X46" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y46" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z46" t="s">
         <v>514</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>515</v>
       </c>
-      <c r="AA46" t="s">
-        <v>516</v>
-      </c>
       <c r="AB46" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC46" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -7026,24 +7144,24 @@
       <c r="W47" s="2">
         <v>21</v>
       </c>
-      <c r="X47" s="2" t="s">
+      <c r="X47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y47" t="s">
         <v>468</v>
       </c>
-      <c r="Y47" t="s">
-        <v>469</v>
-      </c>
       <c r="Z47" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA47" t="s">
         <v>517</v>
       </c>
-      <c r="AA47" t="s">
-        <v>518</v>
-      </c>
       <c r="AB47" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC47" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -7113,24 +7231,24 @@
       <c r="W48" s="2">
         <v>1</v>
       </c>
-      <c r="X48" s="2" t="s">
+      <c r="X48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Y48" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z48" t="s">
         <v>519</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>520</v>
       </c>
-      <c r="AA48" t="s">
-        <v>521</v>
-      </c>
       <c r="AB48" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC48" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>146</v>
       </c>
@@ -7200,26 +7318,26 @@
       <c r="W49" s="2">
         <v>40</v>
       </c>
-      <c r="X49" s="2" t="s">
-        <v>468</v>
+      <c r="X49" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y49" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z49" t="s">
         <v>522</v>
       </c>
-      <c r="Z49" t="s">
-        <v>523</v>
-      </c>
       <c r="AA49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB49" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>513</v>
+        <v>466</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -7289,24 +7407,24 @@
       <c r="W50" s="2">
         <v>2</v>
       </c>
-      <c r="X50" s="2" t="s">
-        <v>462</v>
+      <c r="X50" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y50" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z50" t="s">
         <v>524</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>525</v>
       </c>
-      <c r="AA50" t="s">
-        <v>526</v>
-      </c>
       <c r="AB50" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC50" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -7376,24 +7494,24 @@
       <c r="W51" s="2">
         <v>30</v>
       </c>
-      <c r="X51" s="2" t="s">
-        <v>462</v>
+      <c r="X51" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y51" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z51" t="s">
         <v>527</v>
       </c>
-      <c r="Z51" t="s">
-        <v>528</v>
-      </c>
       <c r="AA51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB51" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC51" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
@@ -7463,24 +7581,24 @@
       <c r="W52" s="2">
         <v>2</v>
       </c>
-      <c r="X52" s="2" t="s">
-        <v>468</v>
+      <c r="X52" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y52" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z52" t="s">
         <v>529</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>530</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>531</v>
       </c>
-      <c r="AB52" t="s">
-        <v>532</v>
-      </c>
-      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>169</v>
       </c>
@@ -7550,24 +7668,24 @@
       <c r="W53" s="2">
         <v>0.5</v>
       </c>
-      <c r="X53" s="2" t="s">
-        <v>468</v>
+      <c r="X53" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y53" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z53" t="s">
         <v>533</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB53" t="s">
         <v>534</v>
       </c>
-      <c r="AA53" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>535</v>
-      </c>
-      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
@@ -7637,24 +7755,24 @@
       <c r="W54" s="2">
         <v>30</v>
       </c>
-      <c r="X54" s="2" t="s">
-        <v>468</v>
+      <c r="X54" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z54" t="s">
         <v>25</v>
       </c>
       <c r="AA54" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AB54" t="s">
         <v>25</v>
       </c>
-      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
@@ -7724,8 +7842,8 @@
       <c r="W55" s="2">
         <v>6</v>
       </c>
-      <c r="X55" s="2" t="s">
-        <v>468</v>
+      <c r="X55" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y55" t="s">
         <v>25</v>
@@ -7734,14 +7852,14 @@
         <v>25</v>
       </c>
       <c r="AA55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB55" t="s">
         <v>25</v>
       </c>
-      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
@@ -7811,24 +7929,24 @@
       <c r="W56" s="2">
         <v>6</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="X56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Y56" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA56" t="s">
         <v>538</v>
       </c>
-      <c r="Z56" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>539</v>
       </c>
-      <c r="AB56" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
@@ -7898,24 +8016,24 @@
       <c r="W57" s="2">
         <v>39.5</v>
       </c>
-      <c r="X57" s="2" t="s">
-        <v>468</v>
+      <c r="X57" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y57" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z57" t="s">
         <v>541</v>
       </c>
-      <c r="Z57" t="s">
-        <v>542</v>
-      </c>
       <c r="AA57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB57" t="s">
         <v>25</v>
       </c>
-      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -7985,24 +8103,24 @@
       <c r="W58" s="2">
         <v>2</v>
       </c>
-      <c r="X58" s="2" t="s">
-        <v>468</v>
+      <c r="X58" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y58" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA58" t="s">
         <v>543</v>
       </c>
-      <c r="Z58" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>544</v>
-      </c>
       <c r="AB58" t="s">
         <v>25</v>
       </c>
-      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -8072,26 +8190,30 @@
       <c r="W59" s="2">
         <v>0</v>
       </c>
-      <c r="X59" s="2" t="s">
-        <v>468</v>
+      <c r="X59" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y59" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z59" t="s">
         <v>545</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB59" t="s">
         <v>546</v>
       </c>
-      <c r="AA59" t="s">
-        <v>474</v>
-      </c>
-      <c r="AB59" t="s">
+      <c r="AD59" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="AC59" s="1" t="s">
-        <v>548</v>
+      <c r="AE59" s="4">
+        <f>9+0.75</f>
+        <v>9.75</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>202</v>
       </c>
@@ -8161,26 +8283,29 @@
       <c r="W60" s="2">
         <v>1</v>
       </c>
-      <c r="X60" s="2" t="s">
-        <v>468</v>
+      <c r="X60" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y60" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z60" t="s">
         <v>549</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>550</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD60" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AB60" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC60" s="1" t="s">
-        <v>552</v>
+      <c r="AE60" s="4">
+        <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -8250,24 +8375,24 @@
       <c r="W61" s="2">
         <v>24</v>
       </c>
-      <c r="X61" s="2" t="s">
-        <v>468</v>
+      <c r="X61" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y61" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA61" t="s">
         <v>553</v>
       </c>
-      <c r="Z61" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>554</v>
-      </c>
       <c r="AB61" t="s">
         <v>25</v>
       </c>
-      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -8337,24 +8462,24 @@
       <c r="W62" s="2">
         <v>41</v>
       </c>
-      <c r="X62" s="2" t="s">
-        <v>462</v>
+      <c r="X62" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y62" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA62" t="s">
         <v>555</v>
       </c>
-      <c r="Z62" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>556</v>
-      </c>
       <c r="AB62" t="s">
         <v>25</v>
       </c>
-      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>220</v>
       </c>
@@ -8424,24 +8549,24 @@
       <c r="W63" s="2">
         <v>6</v>
       </c>
-      <c r="X63" s="2" t="s">
-        <v>468</v>
+      <c r="X63" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y63" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z63" t="s">
         <v>557</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>558</v>
       </c>
-      <c r="AA63" t="s">
-        <v>559</v>
-      </c>
       <c r="AB63" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC63" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
@@ -8511,24 +8636,24 @@
       <c r="W64" s="2">
         <v>1</v>
       </c>
-      <c r="X64" s="2" t="s">
+      <c r="X64" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y64" t="s">
         <v>560</v>
       </c>
-      <c r="Y64" t="s">
-        <v>561</v>
-      </c>
       <c r="Z64" t="s">
         <v>25</v>
       </c>
       <c r="AA64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB64" t="s">
         <v>25</v>
       </c>
-      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>230</v>
       </c>
@@ -8598,24 +8723,24 @@
       <c r="W65" s="2">
         <v>33.5</v>
       </c>
-      <c r="X65" s="2" t="s">
-        <v>468</v>
+      <c r="X65" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y65" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA65" t="s">
         <v>562</v>
       </c>
-      <c r="Z65" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>563</v>
-      </c>
       <c r="AB65" t="s">
         <v>25</v>
       </c>
-      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
@@ -8685,24 +8810,24 @@
       <c r="W66" s="2">
         <v>1</v>
       </c>
-      <c r="X66" s="2" t="s">
-        <v>468</v>
+      <c r="X66" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y66" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z66" t="s">
         <v>564</v>
       </c>
-      <c r="Z66" t="s">
-        <v>565</v>
-      </c>
       <c r="AA66" t="s">
         <v>25</v>
       </c>
       <c r="AB66" t="s">
         <v>25</v>
       </c>
-      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>243</v>
       </c>
@@ -8772,24 +8897,24 @@
       <c r="W67" s="2">
         <v>24</v>
       </c>
-      <c r="X67" s="2" t="s">
-        <v>468</v>
+      <c r="X67" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y67" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z67" t="s">
         <v>25</v>
       </c>
       <c r="AA67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB67" t="s">
         <v>25</v>
       </c>
-      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>247</v>
       </c>
@@ -8859,24 +8984,24 @@
       <c r="W68" s="2">
         <v>2</v>
       </c>
-      <c r="X68" s="2" t="s">
-        <v>468</v>
+      <c r="X68" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y68" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z68" t="s">
         <v>567</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>568</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>569</v>
       </c>
-      <c r="AB68" t="s">
-        <v>570</v>
-      </c>
-      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>252</v>
       </c>
@@ -8946,24 +9071,24 @@
       <c r="W69" s="2">
         <v>37</v>
       </c>
-      <c r="X69" s="2" t="s">
-        <v>468</v>
+      <c r="X69" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y69" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA69" t="s">
         <v>571</v>
       </c>
-      <c r="Z69" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>572</v>
-      </c>
       <c r="AB69" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC69" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>258</v>
       </c>
@@ -9033,24 +9158,24 @@
       <c r="W70" s="2">
         <v>2</v>
       </c>
-      <c r="X70" s="2" t="s">
-        <v>468</v>
+      <c r="X70" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z70" t="s">
         <v>25</v>
       </c>
       <c r="AA70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AB70" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC70" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>263</v>
       </c>
@@ -9120,24 +9245,24 @@
       <c r="W71" s="2">
         <v>5</v>
       </c>
-      <c r="X71" s="2" t="s">
+      <c r="X71" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA71" t="s">
         <v>574</v>
       </c>
-      <c r="Y71" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>575</v>
-      </c>
       <c r="AB71" t="s">
-        <v>467</v>
-      </c>
-      <c r="AC71" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>269</v>
       </c>
@@ -9207,26 +9332,26 @@
       <c r="W72" s="2">
         <v>9</v>
       </c>
-      <c r="X72" s="2" t="s">
+      <c r="X72" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA72" t="s">
         <v>576</v>
       </c>
-      <c r="Y72" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>577</v>
-      </c>
       <c r="AB72" t="s">
         <v>25</v>
       </c>
-      <c r="AC72" s="1" t="s">
-        <v>628</v>
+      <c r="AD72" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>275</v>
       </c>
@@ -9296,24 +9421,24 @@
       <c r="W73" s="2">
         <v>12</v>
       </c>
-      <c r="X73" s="2" t="s">
-        <v>574</v>
+      <c r="X73" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="Y73" t="s">
         <v>25</v>
       </c>
       <c r="Z73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AB73" t="s">
         <v>25</v>
       </c>
-      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>280</v>
       </c>
@@ -9383,24 +9508,24 @@
       <c r="W74" s="2">
         <v>1.8</v>
       </c>
-      <c r="X74" s="2" t="s">
-        <v>462</v>
+      <c r="X74" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y74" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z74" t="s">
         <v>579</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>580</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>581</v>
       </c>
-      <c r="AB74" t="s">
-        <v>582</v>
-      </c>
-      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>286</v>
       </c>
@@ -9470,24 +9595,24 @@
       <c r="W75" s="2">
         <v>15</v>
       </c>
-      <c r="X75" s="2" t="s">
-        <v>574</v>
+      <c r="X75" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="Y75" t="s">
         <v>25</v>
       </c>
       <c r="Z75" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA75" t="s">
         <v>501</v>
       </c>
-      <c r="AA75" t="s">
-        <v>502</v>
-      </c>
       <c r="AB75" t="s">
         <v>25</v>
       </c>
-      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>280</v>
       </c>
@@ -9557,8 +9682,8 @@
       <c r="W76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X76" s="2" t="s">
-        <v>583</v>
+      <c r="X76" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="Y76" t="s">
         <v>25</v>
@@ -9572,9 +9697,9 @@
       <c r="AB76" t="s">
         <v>25</v>
       </c>
-      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>280</v>
       </c>
@@ -9644,24 +9769,24 @@
       <c r="W77" s="2">
         <v>10.7</v>
       </c>
-      <c r="X77" s="2" t="s">
-        <v>462</v>
+      <c r="X77" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y77" t="s">
         <v>25</v>
       </c>
       <c r="Z77" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA77" t="s">
         <v>584</v>
       </c>
-      <c r="AA77" t="s">
-        <v>585</v>
-      </c>
       <c r="AB77" t="s">
         <v>25</v>
       </c>
-      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>304</v>
       </c>
@@ -9731,24 +9856,24 @@
       <c r="W78" s="2">
         <v>1</v>
       </c>
-      <c r="X78" s="2" t="s">
-        <v>468</v>
+      <c r="X78" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="Y78" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA78" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="Z78" s="1" t="s">
+      <c r="AB78" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AA78" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB78" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>299</v>
       </c>
@@ -9818,22 +9943,22 @@
       <c r="W79" s="2">
         <v>9.1</v>
       </c>
-      <c r="X79" s="2" t="s">
-        <v>462</v>
+      <c r="X79" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="Y79" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA79" t="s">
         <v>586</v>
       </c>
-      <c r="Z79" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>587</v>
-      </c>
       <c r="AB79" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC79" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="AD79" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W79">

--- a/scripts/station_info.xlsx
+++ b/scripts/station_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\fish_biodiversity\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72383A50-93A6-4A64-B7E5-B7F256C797BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F5756-229C-4ACF-ACB9-854F5C17C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="station_info" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Christopher Bird</author>
+    <author>tc={C47FDACA-7EDF-4E84-A746-72C94AC59F5E}</author>
   </authors>
   <commentList>
     <comment ref="X1" authorId="0" shapeId="0" xr:uid="{2A05E23D-F768-47F7-BE44-392E141E14A1}">
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{4A226C12-EEA2-4085-BDE6-9B5C4048D2D7}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{F9040BB4-3291-43FF-BC28-FF7347875332}">
       <text>
         <r>
           <rPr>
@@ -157,12 +158,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="X76" authorId="1" shapeId="0" xr:uid="{C47FDACA-7EDF-4E84-A746-72C94AC59F5E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Literal words from sheet</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="660">
   <si>
     <t>date_collected</t>
   </si>
@@ -1538,9 +1547,6 @@
     <t>method_capture</t>
   </si>
   <si>
-    <t>pronoxfish</t>
-  </si>
-  <si>
     <t>method_capture_gal</t>
   </si>
   <si>
@@ -1550,9 +1556,6 @@
     <t>Rotenone</t>
   </si>
   <si>
-    <t>Rotenone; Spear</t>
-  </si>
-  <si>
     <t>Gravel, pavement limestone</t>
   </si>
   <si>
@@ -1595,9 +1598,6 @@
     <t>0 - 30'</t>
   </si>
   <si>
-    <t>R, dip net "and by hand"?</t>
-  </si>
-  <si>
     <t>Mangrove</t>
   </si>
   <si>
@@ -1700,9 +1700,6 @@
     <t>300 m</t>
   </si>
   <si>
-    <t>R, dip net, and "decompression dive"</t>
-  </si>
-  <si>
     <t>Coral, rubble, rock</t>
   </si>
   <si>
@@ -1817,9 +1814,6 @@
     <t>0 - 20'</t>
   </si>
   <si>
-    <t>9 gal derris root powder mixed with water, then by dip net</t>
-  </si>
-  <si>
     <t>Coral reef drop off</t>
   </si>
   <si>
@@ -1958,9 +1952,6 @@
     <t>coral heads and sand patches</t>
   </si>
   <si>
-    <t>resin</t>
-  </si>
-  <si>
     <t>coral heads, rubble and sand</t>
   </si>
   <si>
@@ -1985,9 +1976,6 @@
     <t>mud, sand, some gravel</t>
   </si>
   <si>
-    <t>pronoxfish; resin</t>
-  </si>
-  <si>
     <t>sand, rocks, mud</t>
   </si>
   <si>
@@ -1997,15 +1985,9 @@
     <t>coral, rock, sand</t>
   </si>
   <si>
-    <t>pro</t>
-  </si>
-  <si>
     <t>coral heads, sand patches and rocks at base of cliff just west of chanos pond</t>
   </si>
   <si>
-    <t>pronoxfish; Hawaiian slings</t>
-  </si>
-  <si>
     <t>small coral heads and sand</t>
   </si>
   <si>
@@ -2042,13 +2024,133 @@
     <t>a little thalasia</t>
   </si>
   <si>
-    <t>Collection method: Spear guns, both small grains and larger</t>
-  </si>
-  <si>
     <t>collection_method_type</t>
   </si>
   <si>
     <t>collection_method_manual</t>
+  </si>
+  <si>
+    <t>pronoxfish 2 gal</t>
+  </si>
+  <si>
+    <t>Rotenone 2 gal</t>
+  </si>
+  <si>
+    <t>Rotenone 1 gal</t>
+  </si>
+  <si>
+    <t>Resin 2 gal</t>
+  </si>
+  <si>
+    <t>pronoxfish 1 gal</t>
+  </si>
+  <si>
+    <t>1/2 gal pronoxfish</t>
+  </si>
+  <si>
+    <t>River - 1 and 1/2 gal pronoxfish, mangrove pool - 1/2 gal pronoxfish</t>
+  </si>
+  <si>
+    <t>3 gal pronoxfish</t>
+  </si>
+  <si>
+    <t>pronoxfish 1 gal, resin 1 gal</t>
+  </si>
+  <si>
+    <t>Resin 1 and 3/4 gal</t>
+  </si>
+  <si>
+    <t>pronoxfish 2 gal, Hawaiian slings</t>
+  </si>
+  <si>
+    <t>pronoxfish 3 gal</t>
+  </si>
+  <si>
+    <t>pronoxfish 2 and 1/2 gal</t>
+  </si>
+  <si>
+    <t>Rotenone and spear</t>
+  </si>
+  <si>
+    <t>dip nets and rotenone (witches brew and some chemfish)??</t>
+  </si>
+  <si>
+    <t>Rotenone (chem fish) and dip nets</t>
+  </si>
+  <si>
+    <t>1 and 1/4 gal emulsified rotenone; 4 gal derris root mud</t>
+  </si>
+  <si>
+    <t>1 gal emulsified rotenone, then by dipnet and by hand</t>
+  </si>
+  <si>
+    <t>dip net</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>1 gal emulsified rotenone, then by dipnet</t>
+  </si>
+  <si>
+    <t>2 gal emulsified rotenone, then by dipnet</t>
+  </si>
+  <si>
+    <t>1 and 1/2 gals emulsified rotenone, then dipnet and by hand</t>
+  </si>
+  <si>
+    <t>rotenone and dipnet</t>
+  </si>
+  <si>
+    <t>rotenone; dip nets</t>
+  </si>
+  <si>
+    <t>rotenone; spear</t>
+  </si>
+  <si>
+    <t>rotenone; hawaiian slings</t>
+  </si>
+  <si>
+    <t>pushing dip net through shallow tide pools with eel grass</t>
+  </si>
+  <si>
+    <t>rotenone, dip net, and decompression dive</t>
+  </si>
+  <si>
+    <t>ca 4 gal emulsified rotenone and 6 gals powdered derris root</t>
+  </si>
+  <si>
+    <t>1/2 gal emulsified rotenone, then by dipnet and by hand</t>
+  </si>
+  <si>
+    <t>2 and 1/3 gal emulsified rotenone, then by dipnet and by hand</t>
+  </si>
+  <si>
+    <t>dipnets, rotenone</t>
+  </si>
+  <si>
+    <t>9 gals derris root powder mixed with water, then by dip net</t>
+  </si>
+  <si>
+    <t>2.5 gals emulsified rotenone, then by dip net</t>
+  </si>
+  <si>
+    <t>15 gals powdered derris root mixed with water, then by dipnet and by hand</t>
+  </si>
+  <si>
+    <t>spear gun, both small grains and larger</t>
+  </si>
+  <si>
+    <t>Spear guns, both small grains and larger</t>
+  </si>
+  <si>
+    <t>1/2 gal emulsified rotenone and 7 gals powdered derris root</t>
+  </si>
+  <si>
+    <t>fish trap</t>
+  </si>
+  <si>
+    <t>2 and 1/2 gals emulsified rotenone</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2319,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2403,6 +2505,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2564,13 +2672,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2627,6 +2736,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rebecca Ruiz" id="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" userId="262528bfbbb61171" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2924,25 +3039,36 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="X76" dT="2022-06-02T18:42:53.77" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{C47FDACA-7EDF-4E84-A746-72C94AC59F5E}">
+    <text>Literal words from sheet</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+    <sheetView tabSelected="1" topLeftCell="U52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection activeCell="U1" sqref="U1"/>
+      <selection pane="topRight" activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="21" width="9" style="2"/>
-    <col min="22" max="23" width="9.140625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="9.1328125" style="2" customWidth="1"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="28" width="9.140625" customWidth="1"/>
-    <col min="29" max="30" width="67.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="4" customWidth="1"/>
+    <col min="25" max="28" width="9.1328125" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
+    <col min="30" max="30" width="24.1328125" customWidth="1"/>
+    <col min="31" max="31" width="9.1328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3139,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="Y1" t="s">
         <v>454</v>
@@ -3025,19 +3151,19 @@
         <v>456</v>
       </c>
       <c r="AB1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AC1" t="s">
         <v>457</v>
       </c>
       <c r="AD1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>309</v>
       </c>
@@ -3107,8 +3233,11 @@
       <c r="W2" s="2">
         <v>13.1</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Z2" t="s">
         <v>25</v>
@@ -3119,14 +3248,17 @@
       <c r="AB2" t="s">
         <v>25</v>
       </c>
+      <c r="AC2" t="s">
+        <v>619</v>
+      </c>
       <c r="AD2" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>314</v>
       </c>
@@ -3196,26 +3328,32 @@
       <c r="W3" s="2">
         <v>19</v>
       </c>
+      <c r="X3" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Z3" t="s">
         <v>25</v>
       </c>
       <c r="AA3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AB3" t="s">
         <v>25</v>
       </c>
+      <c r="AC3" t="s">
+        <v>619</v>
+      </c>
       <c r="AD3" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>321</v>
       </c>
@@ -3285,17 +3423,23 @@
       <c r="W4" s="2">
         <v>24</v>
       </c>
+      <c r="X4" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y4" t="s">
         <v>25</v>
       </c>
       <c r="Z4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AA4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AB4" t="s">
         <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>620</v>
       </c>
       <c r="AD4" t="s">
         <v>44</v>
@@ -3304,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>328</v>
       </c>
@@ -3374,17 +3518,23 @@
       <c r="W5" s="2">
         <v>30</v>
       </c>
+      <c r="X5" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y5" t="s">
         <v>25</v>
       </c>
       <c r="Z5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AA5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AB5" t="s">
         <v>25</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>620</v>
       </c>
       <c r="AD5" t="s">
         <v>44</v>
@@ -3393,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>331</v>
       </c>
@@ -3464,19 +3614,22 @@
         <v>1</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>44</v>
@@ -3485,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>335</v>
       </c>
@@ -3555,17 +3708,23 @@
       <c r="W7" s="2">
         <v>37</v>
       </c>
+      <c r="X7" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>44</v>
@@ -3574,7 +3733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
@@ -3644,8 +3803,11 @@
       <c r="W8" s="2">
         <v>30</v>
       </c>
+      <c r="X8" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y8" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>25</v>
@@ -3656,8 +3818,11 @@
       <c r="AB8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC8" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="AD8" s="1" t="s">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="AE8" s="5">
         <v>2</v>
@@ -3668,7 +3833,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>346</v>
       </c>
@@ -3739,10 +3904,10 @@
         <v>2</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>25</v>
@@ -3753,14 +3918,17 @@
       <c r="AB9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC9" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="AD9" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>350</v>
       </c>
@@ -3830,8 +3998,11 @@
       <c r="W10" s="2">
         <v>5</v>
       </c>
+      <c r="X10" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y10" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>25</v>
@@ -3842,14 +4013,17 @@
       <c r="AB10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC10" s="1" t="s">
+        <v>624</v>
+      </c>
       <c r="AD10" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE10" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>358</v>
       </c>
@@ -3920,13 +4094,13 @@
         <v>1</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>362</v>
+        <v>460</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>25</v>
@@ -3934,14 +4108,17 @@
       <c r="AB11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC11" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="AD11" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE11" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -4011,6 +4188,9 @@
       <c r="W12" s="2">
         <v>0.9</v>
       </c>
+      <c r="X12" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y12" s="1" t="s">
         <v>25</v>
       </c>
@@ -4023,14 +4203,17 @@
       <c r="AB12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC12" s="1" t="s">
+        <v>625</v>
+      </c>
       <c r="AD12" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE12" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>370</v>
       </c>
@@ -4101,10 +4284,10 @@
         <v>30</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>25</v>
@@ -4113,16 +4296,19 @@
         <v>25</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE13" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>449</v>
       </c>
@@ -4193,13 +4379,13 @@
         <v>1</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>25</v>
@@ -4207,6 +4393,9 @@
       <c r="AB14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="AD14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4214,7 +4403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>375</v>
       </c>
@@ -4285,10 +4474,10 @@
         <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>25</v>
@@ -4299,14 +4488,17 @@
       <c r="AB15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC15" t="s">
+        <v>619</v>
+      </c>
       <c r="AD15" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE15" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>380</v>
       </c>
@@ -4376,8 +4568,11 @@
       <c r="W16" s="2">
         <v>30</v>
       </c>
+      <c r="X16" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y16" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>25</v>
@@ -4388,14 +4583,17 @@
       <c r="AB16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC16" t="s">
+        <v>619</v>
+      </c>
       <c r="AD16" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE16" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>385</v>
       </c>
@@ -4465,11 +4663,14 @@
       <c r="W17" s="2">
         <v>1</v>
       </c>
+      <c r="X17" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>25</v>
@@ -4477,15 +4678,18 @@
       <c r="AB17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC17" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="AD17" s="1" t="s">
-        <v>607</v>
+        <v>44</v>
       </c>
       <c r="AE17" s="5">
         <f>1+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>390</v>
       </c>
@@ -4555,11 +4759,14 @@
       <c r="W18" s="2">
         <v>1</v>
       </c>
+      <c r="X18" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="AA18" s="1" t="s">
         <v>25</v>
@@ -4567,14 +4774,17 @@
       <c r="AB18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC18" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="AD18" s="1" t="s">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="AE18" s="5">
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>395</v>
       </c>
@@ -4645,10 +4855,10 @@
         <v>3.1</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>25</v>
@@ -4659,14 +4869,17 @@
       <c r="AB19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC19" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="AD19" s="1" t="s">
-        <v>598</v>
+        <v>44</v>
       </c>
       <c r="AE19" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>401</v>
       </c>
@@ -4737,13 +4950,13 @@
         <v>3</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>25</v>
@@ -4751,14 +4964,17 @@
       <c r="AB20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC20" t="s">
+        <v>619</v>
+      </c>
       <c r="AD20" s="1" t="s">
-        <v>611</v>
+        <v>44</v>
       </c>
       <c r="AE20" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>406</v>
       </c>
@@ -4828,8 +5044,11 @@
       <c r="W21" s="2">
         <v>2</v>
       </c>
+      <c r="X21" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y21" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>25</v>
@@ -4840,14 +5059,17 @@
       <c r="AB21" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC21" t="s">
+        <v>629</v>
+      </c>
       <c r="AD21" s="1" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="AE21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>411</v>
       </c>
@@ -4918,10 +5140,10 @@
         <v>2</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>25</v>
@@ -4932,14 +5154,17 @@
       <c r="AB22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC22" t="s">
+        <v>620</v>
+      </c>
       <c r="AD22" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>416</v>
       </c>
@@ -5010,10 +5235,10 @@
         <v>3</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>25</v>
@@ -5024,14 +5249,17 @@
       <c r="AB23" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC23" t="s">
+        <v>619</v>
+      </c>
       <c r="AD23" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>421</v>
       </c>
@@ -5101,8 +5329,11 @@
       <c r="W24" s="2">
         <v>3</v>
       </c>
+      <c r="X24" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y24" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>25</v>
@@ -5113,14 +5344,17 @@
       <c r="AB24" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC24" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="AD24" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE24" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>426</v>
       </c>
@@ -5190,8 +5424,11 @@
       <c r="W25" s="2">
         <v>21</v>
       </c>
+      <c r="X25" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y25" s="1" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>25</v>
@@ -5202,14 +5439,17 @@
       <c r="AB25" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC25" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="AD25" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE25" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>432</v>
       </c>
@@ -5280,28 +5520,31 @@
         <v>5</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC26" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="AD26" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE26" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>439</v>
       </c>
@@ -5372,13 +5615,13 @@
         <v>21</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>25</v>
@@ -5386,14 +5629,17 @@
       <c r="AB27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC27" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="AD27" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE27" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>444</v>
       </c>
@@ -5463,8 +5709,11 @@
       <c r="W28" s="2">
         <v>18</v>
       </c>
+      <c r="X28" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="Y28" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>25</v>
@@ -5475,14 +5724,17 @@
       <c r="AB28" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AC28" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="AD28" s="1" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="AE28" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -5553,23 +5805,31 @@
         <v>1.8</v>
       </c>
       <c r="X29" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z29" t="s">
         <v>462</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>463</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AB29" t="s">
         <v>464</v>
       </c>
-      <c r="AA29" t="s">
-        <v>465</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -5640,23 +5900,31 @@
         <v>18.3</v>
       </c>
       <c r="X30" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z30" t="s">
         <v>467</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>468</v>
       </c>
-      <c r="Z30" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>470</v>
-      </c>
       <c r="AB30" t="s">
         <v>25</v>
       </c>
-      <c r="AD30" s="1"/>
+      <c r="AC30" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -5727,25 +5995,31 @@
         <v>12</v>
       </c>
       <c r="X31" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z31" t="s">
         <v>467</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>468</v>
       </c>
-      <c r="Z31" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>470</v>
-      </c>
       <c r="AB31" t="s">
         <v>25</v>
       </c>
+      <c r="AC31" s="1" t="s">
+        <v>634</v>
+      </c>
       <c r="AD31" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -5816,25 +6090,31 @@
         <v>1</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y32" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA32" t="s">
         <v>471</v>
       </c>
-      <c r="Z32" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>473</v>
-      </c>
       <c r="AB32" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>25</v>
+        <v>460</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>5.25</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -5905,25 +6185,31 @@
         <v>2</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y33" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA33" t="s">
         <v>474</v>
       </c>
-      <c r="Z33" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>476</v>
-      </c>
       <c r="AB33" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>477</v>
+        <v>643</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -5994,25 +6280,31 @@
         <v>1</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y34" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB34" t="s">
         <v>478</v>
       </c>
-      <c r="Z34" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>481</v>
+      <c r="AC34" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="AD34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE34" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -6083,25 +6375,31 @@
         <v>21</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y35" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AA35" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AB35" t="s">
         <v>25</v>
       </c>
+      <c r="AC35" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="AD35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE35" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -6172,25 +6470,31 @@
         <v>1</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Z36" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AA36" t="s">
         <v>25</v>
       </c>
       <c r="AB36" t="s">
-        <v>485</v>
+        <v>482</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>25</v>
+        <v>643</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -6261,25 +6565,31 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y37" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Z37" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AA37" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AB37" t="s">
         <v>25</v>
       </c>
+      <c r="AC37" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="AD37" s="1" t="s">
-        <v>25</v>
+        <v>643</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -6350,23 +6660,31 @@
         <v>0.8</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y38" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB38" t="s">
         <v>489</v>
       </c>
-      <c r="Z38" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>491</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -6437,25 +6755,31 @@
         <v>2</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y39" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Z39" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AA39" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AB39" t="s">
         <v>25</v>
       </c>
+      <c r="AC39" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="AD39" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE39" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -6526,25 +6850,31 @@
         <v>14</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y40" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Z40" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AA40" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AB40" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>25</v>
+        <v>643</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -6615,25 +6945,31 @@
         <v>17</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Z41" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA41" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AB41" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="AD41" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -6704,23 +7040,31 @@
         <v>0.8</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y42" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Z42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AA42" t="s">
         <v>25</v>
       </c>
       <c r="AB42" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD42" s="1"/>
+        <v>501</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -6791,25 +7135,31 @@
         <v>2</v>
       </c>
       <c r="X43" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA43" t="s">
         <v>505</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AB43" t="s">
         <v>506</v>
       </c>
-      <c r="Z43" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>509</v>
+      <c r="AC43" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="AD43" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE43" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -6880,25 +7230,31 @@
         <v>14</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y44" t="s">
         <v>25</v>
       </c>
       <c r="Z44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AB44" t="s">
         <v>25</v>
       </c>
+      <c r="AC44" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="AD44" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE44" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -6969,25 +7325,31 @@
         <v>2</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z45" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AA45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AB45" t="s">
         <v>25</v>
       </c>
+      <c r="AC45" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="AD45" s="1" t="s">
-        <v>512</v>
+        <v>643</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>28636</v>
       </c>
@@ -7058,23 +7420,31 @@
         <v>3</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y46" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Z46" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AA46" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AB46" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD46" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -7145,23 +7515,31 @@
         <v>21</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y47" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z47" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AA47" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AB47" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD47" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE47" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -7235,20 +7613,28 @@
         <v>25</v>
       </c>
       <c r="Y48" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Z48" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AA48" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AB48" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD48" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>146</v>
       </c>
@@ -7319,25 +7705,31 @@
         <v>40</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y49" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Z49" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AA49" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AB49" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>512</v>
+        <v>643</v>
+      </c>
+      <c r="AE49" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -7408,23 +7800,31 @@
         <v>2</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y50" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Z50" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AA50" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AB50" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD50" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -7495,23 +7895,31 @@
         <v>30</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y51" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Z51" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AA51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AB51" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD51" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
@@ -7582,23 +7990,31 @@
         <v>2</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y52" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Z52" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AA52" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AB52" t="s">
-        <v>531</v>
-      </c>
-      <c r="AD52" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>169</v>
       </c>
@@ -7669,23 +8085,31 @@
         <v>0.5</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y53" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Z53" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AA53" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AB53" t="s">
-        <v>534</v>
-      </c>
-      <c r="AD53" s="1"/>
+        <v>530</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>2.33</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
@@ -7756,23 +8180,31 @@
         <v>30</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y54" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Z54" t="s">
         <v>25</v>
       </c>
       <c r="AA54" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AB54" t="s">
         <v>25</v>
       </c>
-      <c r="AD54" s="1"/>
+      <c r="AC54" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
@@ -7843,7 +8275,7 @@
         <v>6</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y55" t="s">
         <v>25</v>
@@ -7852,14 +8284,22 @@
         <v>25</v>
       </c>
       <c r="AA55" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AB55" t="s">
         <v>25</v>
       </c>
-      <c r="AD55" s="1"/>
+      <c r="AC55" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
@@ -7933,20 +8373,28 @@
         <v>25</v>
       </c>
       <c r="Y56" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Z56" t="s">
         <v>25</v>
       </c>
       <c r="AA56" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AB56" t="s">
-        <v>539</v>
-      </c>
-      <c r="AD56" s="1"/>
+        <v>535</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
@@ -8017,23 +8465,31 @@
         <v>39.5</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y57" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z57" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA57" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AB57" t="s">
         <v>25</v>
       </c>
-      <c r="AD57" s="1"/>
+      <c r="AC57" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD57" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE57" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -8104,23 +8560,31 @@
         <v>2</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y58" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Z58" t="s">
         <v>25</v>
       </c>
       <c r="AA58" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AB58" t="s">
         <v>25</v>
       </c>
-      <c r="AD58" s="1"/>
+      <c r="AC58" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD58" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -8191,29 +8655,32 @@
         <v>0</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y59" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="Z59" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AB59" t="s">
-        <v>546</v>
+        <v>542</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>547</v>
+        <v>44</v>
       </c>
       <c r="AE59" s="4">
         <f>9+0.75</f>
         <v>9.75</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>202</v>
       </c>
@@ -8284,28 +8751,31 @@
         <v>1</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y60" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Z60" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AA60" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AB60" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="AE60" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -8376,23 +8846,31 @@
         <v>24</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y61" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Z61" t="s">
         <v>25</v>
       </c>
       <c r="AA61" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AB61" t="s">
         <v>25</v>
       </c>
-      <c r="AD61" s="1"/>
+      <c r="AC61" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD61" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -8463,23 +8941,31 @@
         <v>41</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y62" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Z62" t="s">
         <v>25</v>
       </c>
       <c r="AA62" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AB62" t="s">
         <v>25</v>
       </c>
-      <c r="AD62" s="1"/>
+      <c r="AC62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE62" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>220</v>
       </c>
@@ -8550,23 +9036,31 @@
         <v>6</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y63" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Z63" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AA63" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AB63" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD63" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD63" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE63" s="4">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
@@ -8637,23 +9131,31 @@
         <v>1</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Y64" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="Z64" t="s">
         <v>25</v>
       </c>
       <c r="AA64" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AB64" t="s">
         <v>25</v>
       </c>
-      <c r="AD64" s="1"/>
+      <c r="AC64" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD64" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE64" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>230</v>
       </c>
@@ -8724,23 +9226,31 @@
         <v>33.5</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y65" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Z65" t="s">
         <v>25</v>
       </c>
       <c r="AA65" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AB65" t="s">
         <v>25</v>
       </c>
-      <c r="AD65" s="1"/>
+      <c r="AC65" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD65" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
@@ -8811,13 +9321,13 @@
         <v>1</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y66" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Z66" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AA66" t="s">
         <v>25</v>
@@ -8825,9 +9335,17 @@
       <c r="AB66" t="s">
         <v>25</v>
       </c>
-      <c r="AD66" s="1"/>
+      <c r="AC66" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD66" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE66" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>243</v>
       </c>
@@ -8898,23 +9416,31 @@
         <v>24</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y67" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="Z67" t="s">
         <v>25</v>
       </c>
       <c r="AA67" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AB67" t="s">
         <v>25</v>
       </c>
-      <c r="AD67" s="1"/>
+      <c r="AC67" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD67" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE67" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>247</v>
       </c>
@@ -8985,23 +9511,31 @@
         <v>2</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y68" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Z68" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AA68" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="AB68" t="s">
-        <v>569</v>
-      </c>
-      <c r="AD68" s="1"/>
+        <v>564</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD68" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE68" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>252</v>
       </c>
@@ -9072,23 +9606,31 @@
         <v>37</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y69" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="Z69" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AA69" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AB69" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD69" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD69" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>258</v>
       </c>
@@ -9159,23 +9701,31 @@
         <v>2</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y70" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="Z70" t="s">
         <v>25</v>
       </c>
       <c r="AA70" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AB70" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD70" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE70" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>263</v>
       </c>
@@ -9246,23 +9796,31 @@
         <v>5</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="Y71" t="s">
         <v>25</v>
       </c>
       <c r="Z71" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA71" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AB71" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD71" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>269</v>
       </c>
@@ -9333,25 +9891,31 @@
         <v>9</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Y72" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Z72" t="s">
         <v>25</v>
       </c>
       <c r="AA72" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AB72" t="s">
         <v>25</v>
       </c>
+      <c r="AC72" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="AD72" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
+      </c>
+      <c r="AE72" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>275</v>
       </c>
@@ -9422,23 +9986,31 @@
         <v>12</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="Y73" t="s">
         <v>25</v>
       </c>
       <c r="Z73" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA73" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AB73" t="s">
         <v>25</v>
       </c>
-      <c r="AD73" s="1"/>
+      <c r="AC73" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE73" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>280</v>
       </c>
@@ -9509,23 +10081,31 @@
         <v>1.8</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y74" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="Z74" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AA74" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AB74" t="s">
-        <v>581</v>
-      </c>
-      <c r="AD74" s="1"/>
+        <v>576</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE74" s="4">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>286</v>
       </c>
@@ -9596,23 +10176,31 @@
         <v>15</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="Y75" t="s">
         <v>25</v>
       </c>
       <c r="Z75" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA75" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AB75" t="s">
         <v>25</v>
       </c>
-      <c r="AD75" s="1"/>
+      <c r="AC75" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD75" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE75" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>280</v>
       </c>
@@ -9683,7 +10271,7 @@
         <v>25</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="Y76" t="s">
         <v>25</v>
@@ -9697,9 +10285,17 @@
       <c r="AB76" t="s">
         <v>25</v>
       </c>
-      <c r="AD76" s="1"/>
+      <c r="AC76" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD76" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE76" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>280</v>
       </c>
@@ -9770,23 +10366,31 @@
         <v>10.7</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y77" t="s">
         <v>25</v>
       </c>
       <c r="Z77" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AA77" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AB77" t="s">
         <v>25</v>
       </c>
-      <c r="AD77" s="1"/>
+      <c r="AC77" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AD77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE77" s="4">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>304</v>
       </c>
@@ -9857,23 +10461,31 @@
         <v>1</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AD78" s="1"/>
+        <v>616</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE78" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>299</v>
       </c>
@@ -9944,21 +10556,29 @@
         <v>9.1</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y79" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Z79" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AA79" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AB79" t="s">
-        <v>539</v>
-      </c>
-      <c r="AD79" s="1"/>
+        <v>535</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE79" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W79">

--- a/scripts/station_info.xlsx
+++ b/scripts/station_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\fish_biodiversity\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F5756-229C-4ACF-ACB9-854F5C17C3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0623B9-64ED-4E98-B02C-AA113143A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3513" yWindow="2567" windowWidth="17134" windowHeight="10033" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="station_info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Christopher Bird:</t>
         </r>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 this column was made by Rebecca Ruiz, it is a combination of information from the database query (on the left) and the field data records</t>
@@ -94,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Christopher Bird:</t>
         </r>
@@ -103,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 word for word, the method of capture field from the field data records</t>
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Christopher Bird:</t>
         </r>
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 made by Rebecca Ruiz, inferredf from method_capture</t>
@@ -142,7 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Christopher Bird:</t>
         </r>
@@ -151,10 +151,34 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sum of volumes from method_capture column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC30" authorId="0" shapeId="0" xr:uid="{F1E68B56-9488-4C53-BF90-1CF582B33A0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+handwriting hard to interpret </t>
         </r>
       </text>
     </comment>
@@ -2157,7 +2181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2304,19 +2328,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2672,7 +2683,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2680,6 +2691,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3051,119 +3074,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection activeCell="U1" sqref="U1"/>
-      <selection pane="topRight" activeCell="AC43" sqref="AC43"/>
+    <sheetView tabSelected="1" topLeftCell="W16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="21" width="9" style="2"/>
-    <col min="22" max="23" width="9.1328125" style="2" customWidth="1"/>
+    <col min="22" max="23" width="9.1171875" style="2" customWidth="1"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="28" width="9.1328125" customWidth="1"/>
+    <col min="25" max="28" width="9.1171875" customWidth="1"/>
     <col min="29" max="29" width="22" customWidth="1"/>
-    <col min="30" max="30" width="24.1328125" customWidth="1"/>
-    <col min="31" max="31" width="9.1328125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="24.1171875" customWidth="1"/>
+    <col min="31" max="31" width="9.1171875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:37" s="9" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>309</v>
       </c>
@@ -3258,7 +3279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>314</v>
       </c>
@@ -3353,7 +3374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>321</v>
       </c>
@@ -3448,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>328</v>
       </c>
@@ -3543,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>331</v>
       </c>
@@ -3638,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>335</v>
       </c>
@@ -3733,7 +3754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
@@ -3833,7 +3854,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>346</v>
       </c>
@@ -3928,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>350</v>
       </c>
@@ -4023,7 +4044,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>358</v>
       </c>
@@ -4118,7 +4139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -4213,7 +4234,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>370</v>
       </c>
@@ -4308,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>449</v>
       </c>
@@ -4403,7 +4424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>375</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>380</v>
       </c>
@@ -4593,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>385</v>
       </c>
@@ -4689,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>390</v>
       </c>
@@ -4784,7 +4805,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>395</v>
       </c>
@@ -4879,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>401</v>
       </c>
@@ -4974,7 +4995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>406</v>
       </c>
@@ -5069,7 +5090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>411</v>
       </c>
@@ -5164,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>416</v>
       </c>
@@ -5259,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>421</v>
       </c>
@@ -5354,7 +5375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>426</v>
       </c>
@@ -5449,7 +5470,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>432</v>
       </c>
@@ -5544,7 +5565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>439</v>
       </c>
@@ -5639,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>444</v>
       </c>
@@ -5734,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -5924,7 +5945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -6019,7 +6040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -6114,7 +6135,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -6209,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -6304,7 +6325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -6399,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -6494,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -6589,7 +6610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -6684,7 +6705,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -6779,7 +6800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -6874,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -6969,7 +6990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -7064,7 +7085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -7159,7 +7180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -7254,7 +7275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -7349,7 +7370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>28636</v>
       </c>
@@ -7444,7 +7465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -7539,7 +7560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -7634,7 +7655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>146</v>
       </c>
@@ -7729,7 +7750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -7824,7 +7845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -7919,7 +7940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
@@ -8014,7 +8035,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
         <v>169</v>
       </c>
@@ -8109,7 +8130,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
@@ -8204,7 +8225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
@@ -8299,7 +8320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
@@ -8394,7 +8415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
@@ -8489,7 +8510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -8584,7 +8605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -8680,7 +8701,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>202</v>
       </c>
@@ -8775,7 +8796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -8870,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -8965,7 +8986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
         <v>220</v>
       </c>
@@ -9060,7 +9081,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
@@ -9155,7 +9176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
         <v>230</v>
       </c>
@@ -9250,7 +9271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
@@ -9345,7 +9366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
         <v>243</v>
       </c>
@@ -9440,7 +9461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
         <v>247</v>
       </c>
@@ -9535,7 +9556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
         <v>252</v>
       </c>
@@ -9630,7 +9651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
         <v>258</v>
       </c>
@@ -9725,7 +9746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
         <v>263</v>
       </c>
@@ -9820,7 +9841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
         <v>269</v>
       </c>
@@ -9915,7 +9936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
         <v>275</v>
       </c>
@@ -10010,7 +10031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
         <v>280</v>
       </c>
@@ -10105,7 +10126,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
         <v>286</v>
       </c>
@@ -10200,7 +10221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
         <v>280</v>
       </c>
@@ -10295,7 +10316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
         <v>280</v>
       </c>
@@ -10390,7 +10411,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
         <v>304</v>
       </c>
@@ -10485,7 +10506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
         <v>299</v>
       </c>
@@ -10585,7 +10606,7 @@
     <sortCondition ref="U2:U79"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>